--- a/Docs/Config/STC3115 OCV curve - default register values.xlsx
+++ b/Docs/Config/STC3115 OCV curve - default register values.xlsx
@@ -459,23 +459,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -486,6 +474,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -540,7 +540,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Battery</a:t>
+              <a:t>Battery 4.20Vmax -</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -548,7 +548,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>OCV</a:t>
+              <a:t>OCV curve example</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -889,11 +889,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248608208"/>
-        <c:axId val="246482832"/>
+        <c:axId val="415123048"/>
+        <c:axId val="415123440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248608208"/>
+        <c:axId val="415123048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1007,12 +1007,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246482832"/>
+        <c:crossAx val="415123440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="246482832"/>
+        <c:axId val="415123440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4400"/>
@@ -1131,7 +1131,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248608208"/>
+        <c:crossAx val="415123048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1247,15 +1247,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Battery</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>OCV</a:t>
+              <a:t>Battery 4.35Vmax - OCV curve example</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1596,11 +1588,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248696584"/>
-        <c:axId val="249238408"/>
+        <c:axId val="415123832"/>
+        <c:axId val="415124224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248696584"/>
+        <c:axId val="415123832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1714,12 +1706,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249238408"/>
+        <c:crossAx val="415124224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="249238408"/>
+        <c:axId val="415124224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4400"/>
@@ -1838,7 +1830,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248696584"/>
+        <c:crossAx val="415123832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2449,11 +2441,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="388339528"/>
-        <c:axId val="388337568"/>
+        <c:axId val="413130440"/>
+        <c:axId val="413130832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="388339528"/>
+        <c:axId val="413130440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2567,12 +2559,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388337568"/>
+        <c:crossAx val="413130832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="388337568"/>
+        <c:axId val="413130832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4400"/>
@@ -2691,7 +2683,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388339528"/>
+        <c:crossAx val="413130440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3302,11 +3294,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="310777656"/>
-        <c:axId val="390550864"/>
+        <c:axId val="413131616"/>
+        <c:axId val="413132008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="310777656"/>
+        <c:axId val="413131616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3420,12 +3412,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390550864"/>
+        <c:crossAx val="413132008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="390550864"/>
+        <c:axId val="413132008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4400"/>
@@ -3544,7 +3536,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="310777656"/>
+        <c:crossAx val="413131616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6314,12 +6306,12 @@
       <c r="B5" s="9"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G6" s="36" t="s">
+      <c r="G6" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
     </row>
     <row r="7" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="22" t="s">
@@ -6341,10 +6333,10 @@
       <c r="H7" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="37" t="s">
+      <c r="I7" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="38"/>
+      <c r="J7" s="44"/>
     </row>
     <row r="8" spans="1:17" ht="49.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="21"/>
@@ -6883,12 +6875,12 @@
       </c>
     </row>
     <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G29" s="36" t="s">
+      <c r="G29" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
     </row>
     <row r="30" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="22" t="s">
@@ -6910,12 +6902,12 @@
       <c r="H30" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="I30" s="37" t="s">
+      <c r="I30" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="J30" s="38"/>
-    </row>
-    <row r="31" spans="1:17" ht="49.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J30" s="44"/>
+    </row>
+    <row r="31" spans="1:17" ht="37.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="21"/>
       <c r="C31" s="12"/>
       <c r="D31" s="17" t="s">
@@ -7452,10 +7444,10 @@
       </c>
     </row>
     <row r="52" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="45"/>
     </row>
     <row r="53" spans="1:15" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="22" t="s">
@@ -7471,10 +7463,10 @@
         <v>23</v>
       </c>
       <c r="F53" s="25"/>
-      <c r="G53" s="41" t="s">
+      <c r="G53" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="H53" s="38"/>
+      <c r="H53" s="44"/>
       <c r="I53" s="29" t="s">
         <v>28</v>
       </c>
@@ -7518,14 +7510,14 @@
       <c r="D55" s="1">
         <v>3300</v>
       </c>
-      <c r="E55" s="44">
+      <c r="E55" s="40">
         <v>0</v>
       </c>
       <c r="F55" s="8"/>
       <c r="G55" s="15">
         <v>-128</v>
       </c>
-      <c r="H55" s="39" t="str">
+      <c r="H55" s="36" t="str">
         <f>DEC2HEX(G55, 2)</f>
         <v>FFFFFFFF80</v>
       </c>
@@ -7533,8 +7525,8 @@
         <f>G55*0.55</f>
         <v>-70.400000000000006</v>
       </c>
-      <c r="J55" s="42">
-        <f>D55+I55</f>
+      <c r="J55" s="38">
+        <f t="shared" ref="J55:J70" si="6">D55+I55</f>
         <v>3229.6</v>
       </c>
     </row>
@@ -7548,23 +7540,23 @@
       <c r="D56" s="1">
         <v>3541</v>
       </c>
-      <c r="E56" s="45">
+      <c r="E56" s="41">
         <v>0</v>
       </c>
       <c r="F56" s="8"/>
       <c r="G56" s="15">
         <v>-128</v>
       </c>
-      <c r="H56" s="39" t="str">
-        <f t="shared" ref="H56:H70" si="6">DEC2HEX(G56, 2)</f>
+      <c r="H56" s="36" t="str">
+        <f t="shared" ref="H56:H70" si="7">DEC2HEX(G56, 2)</f>
         <v>FFFFFFFF80</v>
       </c>
       <c r="I56" s="1">
-        <f t="shared" ref="I56:I70" si="7">G56*0.55</f>
+        <f t="shared" ref="I56:I70" si="8">G56*0.55</f>
         <v>-70.400000000000006</v>
       </c>
-      <c r="J56" s="42">
-        <f>D56+I56</f>
+      <c r="J56" s="38">
+        <f t="shared" si="6"/>
         <v>3470.6</v>
       </c>
     </row>
@@ -7578,23 +7570,23 @@
       <c r="D57" s="1">
         <v>3618</v>
       </c>
-      <c r="E57" s="45">
+      <c r="E57" s="41">
         <v>0</v>
       </c>
       <c r="F57" s="8"/>
       <c r="G57" s="15">
         <v>-128</v>
       </c>
-      <c r="H57" s="39" t="str">
+      <c r="H57" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>FFFFFFFF80</v>
+      </c>
+      <c r="I57" s="1">
+        <f t="shared" si="8"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J57" s="38">
         <f t="shared" si="6"/>
-        <v>FFFFFFFF80</v>
-      </c>
-      <c r="I57" s="1">
-        <f t="shared" si="7"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J57" s="42">
-        <f>D57+I57</f>
         <v>3547.6</v>
       </c>
     </row>
@@ -7608,23 +7600,23 @@
       <c r="D58" s="1">
         <v>3658</v>
       </c>
-      <c r="E58" s="45">
+      <c r="E58" s="41">
         <v>0</v>
       </c>
       <c r="F58" s="8"/>
       <c r="G58" s="15">
         <v>-128</v>
       </c>
-      <c r="H58" s="39" t="str">
+      <c r="H58" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>FFFFFFFF80</v>
+      </c>
+      <c r="I58" s="1">
+        <f t="shared" si="8"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J58" s="38">
         <f t="shared" si="6"/>
-        <v>FFFFFFFF80</v>
-      </c>
-      <c r="I58" s="1">
-        <f t="shared" si="7"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J58" s="42">
-        <f>D58+I58</f>
         <v>3587.6</v>
       </c>
     </row>
@@ -7638,23 +7630,23 @@
       <c r="D59" s="1">
         <v>3695</v>
       </c>
-      <c r="E59" s="45">
+      <c r="E59" s="41">
         <v>0</v>
       </c>
       <c r="F59" s="8"/>
       <c r="G59" s="15">
         <v>-128</v>
       </c>
-      <c r="H59" s="39" t="str">
+      <c r="H59" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>FFFFFFFF80</v>
+      </c>
+      <c r="I59" s="1">
+        <f t="shared" si="8"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J59" s="38">
         <f t="shared" si="6"/>
-        <v>FFFFFFFF80</v>
-      </c>
-      <c r="I59" s="1">
-        <f t="shared" si="7"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J59" s="42">
-        <f>D59+I59</f>
         <v>3624.6</v>
       </c>
     </row>
@@ -7668,23 +7660,23 @@
       <c r="D60" s="1">
         <v>3721</v>
       </c>
-      <c r="E60" s="45">
+      <c r="E60" s="41">
         <v>0</v>
       </c>
       <c r="F60" s="8"/>
       <c r="G60" s="15">
         <v>-128</v>
       </c>
-      <c r="H60" s="39" t="str">
+      <c r="H60" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>FFFFFFFF80</v>
+      </c>
+      <c r="I60" s="1">
+        <f t="shared" si="8"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J60" s="38">
         <f t="shared" si="6"/>
-        <v>FFFFFFFF80</v>
-      </c>
-      <c r="I60" s="1">
-        <f t="shared" si="7"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J60" s="42">
-        <f>D60+I60</f>
         <v>3650.6</v>
       </c>
     </row>
@@ -7698,23 +7690,23 @@
       <c r="D61" s="1">
         <v>3747</v>
       </c>
-      <c r="E61" s="45">
+      <c r="E61" s="41">
         <v>0</v>
       </c>
       <c r="F61" s="8"/>
       <c r="G61" s="15">
         <v>-128</v>
       </c>
-      <c r="H61" s="39" t="str">
+      <c r="H61" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>FFFFFFFF80</v>
+      </c>
+      <c r="I61" s="1">
+        <f t="shared" si="8"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J61" s="38">
         <f t="shared" si="6"/>
-        <v>FFFFFFFF80</v>
-      </c>
-      <c r="I61" s="1">
-        <f t="shared" si="7"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J61" s="42">
-        <f>D61+I61</f>
         <v>3676.6</v>
       </c>
     </row>
@@ -7728,23 +7720,23 @@
       <c r="D62" s="1">
         <v>3761</v>
       </c>
-      <c r="E62" s="45">
+      <c r="E62" s="41">
         <v>0</v>
       </c>
       <c r="F62" s="8"/>
       <c r="G62" s="15">
         <v>-128</v>
       </c>
-      <c r="H62" s="39" t="str">
+      <c r="H62" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>FFFFFFFF80</v>
+      </c>
+      <c r="I62" s="1">
+        <f t="shared" si="8"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J62" s="38">
         <f t="shared" si="6"/>
-        <v>FFFFFFFF80</v>
-      </c>
-      <c r="I62" s="1">
-        <f t="shared" si="7"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J62" s="42">
-        <f>D62+I62</f>
         <v>3690.6</v>
       </c>
     </row>
@@ -7758,23 +7750,23 @@
       <c r="D63" s="1">
         <v>3778</v>
       </c>
-      <c r="E63" s="45">
+      <c r="E63" s="41">
         <v>0</v>
       </c>
       <c r="F63" s="8"/>
       <c r="G63" s="15">
         <v>-128</v>
       </c>
-      <c r="H63" s="39" t="str">
+      <c r="H63" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>FFFFFFFF80</v>
+      </c>
+      <c r="I63" s="1">
+        <f t="shared" si="8"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J63" s="38">
         <f t="shared" si="6"/>
-        <v>FFFFFFFF80</v>
-      </c>
-      <c r="I63" s="1">
-        <f t="shared" si="7"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J63" s="42">
-        <f>D63+I63</f>
         <v>3707.6</v>
       </c>
     </row>
@@ -7788,23 +7780,23 @@
       <c r="D64" s="1">
         <v>3802</v>
       </c>
-      <c r="E64" s="45">
+      <c r="E64" s="41">
         <v>0</v>
       </c>
       <c r="F64" s="8"/>
       <c r="G64" s="15">
         <v>-128</v>
       </c>
-      <c r="H64" s="39" t="str">
+      <c r="H64" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>FFFFFFFF80</v>
+      </c>
+      <c r="I64" s="1">
+        <f t="shared" si="8"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J64" s="38">
         <f t="shared" si="6"/>
-        <v>FFFFFFFF80</v>
-      </c>
-      <c r="I64" s="1">
-        <f t="shared" si="7"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J64" s="42">
-        <f>D64+I64</f>
         <v>3731.6</v>
       </c>
     </row>
@@ -7818,23 +7810,23 @@
       <c r="D65" s="1">
         <v>3863</v>
       </c>
-      <c r="E65" s="45">
+      <c r="E65" s="41">
         <v>0</v>
       </c>
       <c r="F65" s="8"/>
       <c r="G65" s="15">
         <v>-128</v>
       </c>
-      <c r="H65" s="39" t="str">
+      <c r="H65" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>FFFFFFFF80</v>
+      </c>
+      <c r="I65" s="1">
+        <f t="shared" si="8"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J65" s="38">
         <f t="shared" si="6"/>
-        <v>FFFFFFFF80</v>
-      </c>
-      <c r="I65" s="1">
-        <f t="shared" si="7"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J65" s="42">
-        <f>D65+I65</f>
         <v>3792.6</v>
       </c>
     </row>
@@ -7848,23 +7840,23 @@
       <c r="D66" s="1">
         <v>3899</v>
       </c>
-      <c r="E66" s="45">
+      <c r="E66" s="41">
         <v>0</v>
       </c>
       <c r="F66" s="8"/>
       <c r="G66" s="15">
         <v>-128</v>
       </c>
-      <c r="H66" s="39" t="str">
+      <c r="H66" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>FFFFFFFF80</v>
+      </c>
+      <c r="I66" s="1">
+        <f t="shared" si="8"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J66" s="38">
         <f t="shared" si="6"/>
-        <v>FFFFFFFF80</v>
-      </c>
-      <c r="I66" s="1">
-        <f t="shared" si="7"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J66" s="42">
-        <f>D66+I66</f>
         <v>3828.6</v>
       </c>
     </row>
@@ -7878,23 +7870,23 @@
       <c r="D67" s="1">
         <v>3929</v>
       </c>
-      <c r="E67" s="45">
+      <c r="E67" s="41">
         <v>0</v>
       </c>
       <c r="F67" s="8"/>
       <c r="G67" s="15">
         <v>-128</v>
       </c>
-      <c r="H67" s="39" t="str">
+      <c r="H67" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>FFFFFFFF80</v>
+      </c>
+      <c r="I67" s="1">
+        <f t="shared" si="8"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J67" s="38">
         <f t="shared" si="6"/>
-        <v>FFFFFFFF80</v>
-      </c>
-      <c r="I67" s="1">
-        <f t="shared" si="7"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J67" s="42">
-        <f>D67+I67</f>
         <v>3858.6</v>
       </c>
     </row>
@@ -7908,23 +7900,23 @@
       <c r="D68" s="1">
         <v>3991</v>
       </c>
-      <c r="E68" s="45">
+      <c r="E68" s="41">
         <v>0</v>
       </c>
       <c r="F68" s="8"/>
       <c r="G68" s="15">
         <v>-128</v>
       </c>
-      <c r="H68" s="39" t="str">
+      <c r="H68" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>FFFFFFFF80</v>
+      </c>
+      <c r="I68" s="1">
+        <f t="shared" si="8"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J68" s="38">
         <f t="shared" si="6"/>
-        <v>FFFFFFFF80</v>
-      </c>
-      <c r="I68" s="1">
-        <f t="shared" si="7"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J68" s="42">
-        <f>D68+I68</f>
         <v>3920.6</v>
       </c>
     </row>
@@ -7938,23 +7930,23 @@
       <c r="D69" s="1">
         <v>4076</v>
       </c>
-      <c r="E69" s="45">
+      <c r="E69" s="41">
         <v>0</v>
       </c>
       <c r="F69" s="8"/>
       <c r="G69" s="15">
         <v>-128</v>
       </c>
-      <c r="H69" s="39" t="str">
+      <c r="H69" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>FFFFFFFF80</v>
+      </c>
+      <c r="I69" s="1">
+        <f t="shared" si="8"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J69" s="38">
         <f t="shared" si="6"/>
-        <v>FFFFFFFF80</v>
-      </c>
-      <c r="I69" s="1">
-        <f t="shared" si="7"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J69" s="42">
-        <f>D69+I69</f>
         <v>4005.6</v>
       </c>
     </row>
@@ -7968,23 +7960,23 @@
       <c r="D70" s="2">
         <v>4176</v>
       </c>
-      <c r="E70" s="46">
+      <c r="E70" s="42">
         <v>0</v>
       </c>
       <c r="F70" s="8"/>
       <c r="G70" s="16">
         <v>-128</v>
       </c>
-      <c r="H70" s="40" t="str">
+      <c r="H70" s="37" t="str">
+        <f t="shared" si="7"/>
+        <v>FFFFFFFF80</v>
+      </c>
+      <c r="I70" s="2">
+        <f t="shared" si="8"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J70" s="39">
         <f t="shared" si="6"/>
-        <v>FFFFFFFF80</v>
-      </c>
-      <c r="I70" s="2">
-        <f t="shared" si="7"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J70" s="43">
-        <f>D70+I70</f>
         <v>4105.6000000000004</v>
       </c>
     </row>
@@ -8000,10 +7992,10 @@
       <c r="O71" s="7"/>
     </row>
     <row r="72" spans="2:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G72" s="41" t="s">
+      <c r="G72" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="H72" s="38"/>
+      <c r="H72" s="44"/>
       <c r="I72" s="29" t="s">
         <v>28</v>
       </c>
@@ -8029,7 +8021,7 @@
       <c r="G74" s="15">
         <v>127</v>
       </c>
-      <c r="H74" s="39" t="str">
+      <c r="H74" s="36" t="str">
         <f>DEC2HEX(G74, 2)</f>
         <v>7F</v>
       </c>
@@ -8037,7 +8029,7 @@
         <f>G74*0.55</f>
         <v>69.850000000000009</v>
       </c>
-      <c r="J74" s="42">
+      <c r="J74" s="38">
         <f>D55+I74</f>
         <v>3369.85</v>
       </c>
@@ -8046,16 +8038,16 @@
       <c r="G75" s="15">
         <v>127</v>
       </c>
-      <c r="H75" s="39" t="str">
-        <f t="shared" ref="H75:H89" si="8">DEC2HEX(G75, 2)</f>
+      <c r="H75" s="36" t="str">
+        <f t="shared" ref="H75:H89" si="9">DEC2HEX(G75, 2)</f>
         <v>7F</v>
       </c>
       <c r="I75" s="1">
-        <f t="shared" ref="I75:I89" si="9">G75*0.55</f>
+        <f t="shared" ref="I75:I89" si="10">G75*0.55</f>
         <v>69.850000000000009</v>
       </c>
-      <c r="J75" s="42">
-        <f t="shared" ref="J75:J89" si="10">D56+I75</f>
+      <c r="J75" s="38">
+        <f t="shared" ref="J75:J89" si="11">D56+I75</f>
         <v>3610.85</v>
       </c>
     </row>
@@ -8063,16 +8055,16 @@
       <c r="G76" s="15">
         <v>127</v>
       </c>
-      <c r="H76" s="39" t="str">
-        <f t="shared" si="8"/>
+      <c r="H76" s="36" t="str">
+        <f t="shared" si="9"/>
         <v>7F</v>
       </c>
       <c r="I76" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>69.850000000000009</v>
       </c>
-      <c r="J76" s="42">
-        <f t="shared" si="10"/>
+      <c r="J76" s="38">
+        <f t="shared" si="11"/>
         <v>3687.85</v>
       </c>
     </row>
@@ -8080,16 +8072,16 @@
       <c r="G77" s="15">
         <v>127</v>
       </c>
-      <c r="H77" s="39" t="str">
-        <f t="shared" si="8"/>
+      <c r="H77" s="36" t="str">
+        <f t="shared" si="9"/>
         <v>7F</v>
       </c>
       <c r="I77" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>69.850000000000009</v>
       </c>
-      <c r="J77" s="42">
-        <f t="shared" si="10"/>
+      <c r="J77" s="38">
+        <f t="shared" si="11"/>
         <v>3727.85</v>
       </c>
     </row>
@@ -8097,16 +8089,16 @@
       <c r="G78" s="15">
         <v>127</v>
       </c>
-      <c r="H78" s="39" t="str">
-        <f t="shared" si="8"/>
+      <c r="H78" s="36" t="str">
+        <f t="shared" si="9"/>
         <v>7F</v>
       </c>
       <c r="I78" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>69.850000000000009</v>
       </c>
-      <c r="J78" s="42">
-        <f t="shared" si="10"/>
+      <c r="J78" s="38">
+        <f t="shared" si="11"/>
         <v>3764.85</v>
       </c>
     </row>
@@ -8114,16 +8106,16 @@
       <c r="G79" s="15">
         <v>127</v>
       </c>
-      <c r="H79" s="39" t="str">
-        <f t="shared" si="8"/>
+      <c r="H79" s="36" t="str">
+        <f t="shared" si="9"/>
         <v>7F</v>
       </c>
       <c r="I79" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>69.850000000000009</v>
       </c>
-      <c r="J79" s="42">
-        <f t="shared" si="10"/>
+      <c r="J79" s="38">
+        <f t="shared" si="11"/>
         <v>3790.85</v>
       </c>
     </row>
@@ -8131,16 +8123,16 @@
       <c r="G80" s="15">
         <v>127</v>
       </c>
-      <c r="H80" s="39" t="str">
-        <f t="shared" si="8"/>
+      <c r="H80" s="36" t="str">
+        <f t="shared" si="9"/>
         <v>7F</v>
       </c>
       <c r="I80" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>69.850000000000009</v>
       </c>
-      <c r="J80" s="42">
-        <f t="shared" si="10"/>
+      <c r="J80" s="38">
+        <f t="shared" si="11"/>
         <v>3816.85</v>
       </c>
     </row>
@@ -8148,16 +8140,16 @@
       <c r="G81" s="15">
         <v>127</v>
       </c>
-      <c r="H81" s="39" t="str">
-        <f t="shared" si="8"/>
+      <c r="H81" s="36" t="str">
+        <f t="shared" si="9"/>
         <v>7F</v>
       </c>
       <c r="I81" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>69.850000000000009</v>
       </c>
-      <c r="J81" s="42">
-        <f t="shared" si="10"/>
+      <c r="J81" s="38">
+        <f t="shared" si="11"/>
         <v>3830.85</v>
       </c>
     </row>
@@ -8165,16 +8157,16 @@
       <c r="G82" s="15">
         <v>127</v>
       </c>
-      <c r="H82" s="39" t="str">
-        <f t="shared" si="8"/>
+      <c r="H82" s="36" t="str">
+        <f t="shared" si="9"/>
         <v>7F</v>
       </c>
       <c r="I82" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>69.850000000000009</v>
       </c>
-      <c r="J82" s="42">
-        <f t="shared" si="10"/>
+      <c r="J82" s="38">
+        <f t="shared" si="11"/>
         <v>3847.85</v>
       </c>
     </row>
@@ -8182,16 +8174,16 @@
       <c r="G83" s="15">
         <v>127</v>
       </c>
-      <c r="H83" s="39" t="str">
-        <f t="shared" si="8"/>
+      <c r="H83" s="36" t="str">
+        <f t="shared" si="9"/>
         <v>7F</v>
       </c>
       <c r="I83" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>69.850000000000009</v>
       </c>
-      <c r="J83" s="42">
-        <f t="shared" si="10"/>
+      <c r="J83" s="38">
+        <f t="shared" si="11"/>
         <v>3871.85</v>
       </c>
     </row>
@@ -8199,16 +8191,16 @@
       <c r="G84" s="15">
         <v>127</v>
       </c>
-      <c r="H84" s="39" t="str">
-        <f t="shared" si="8"/>
+      <c r="H84" s="36" t="str">
+        <f t="shared" si="9"/>
         <v>7F</v>
       </c>
       <c r="I84" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>69.850000000000009</v>
       </c>
-      <c r="J84" s="42">
-        <f t="shared" si="10"/>
+      <c r="J84" s="38">
+        <f t="shared" si="11"/>
         <v>3932.85</v>
       </c>
     </row>
@@ -8216,16 +8208,16 @@
       <c r="G85" s="15">
         <v>127</v>
       </c>
-      <c r="H85" s="39" t="str">
-        <f t="shared" si="8"/>
+      <c r="H85" s="36" t="str">
+        <f t="shared" si="9"/>
         <v>7F</v>
       </c>
       <c r="I85" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>69.850000000000009</v>
       </c>
-      <c r="J85" s="42">
-        <f t="shared" si="10"/>
+      <c r="J85" s="38">
+        <f t="shared" si="11"/>
         <v>3968.85</v>
       </c>
     </row>
@@ -8233,16 +8225,16 @@
       <c r="G86" s="15">
         <v>127</v>
       </c>
-      <c r="H86" s="39" t="str">
-        <f t="shared" si="8"/>
+      <c r="H86" s="36" t="str">
+        <f t="shared" si="9"/>
         <v>7F</v>
       </c>
       <c r="I86" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>69.850000000000009</v>
       </c>
-      <c r="J86" s="42">
-        <f t="shared" si="10"/>
+      <c r="J86" s="38">
+        <f t="shared" si="11"/>
         <v>3998.85</v>
       </c>
     </row>
@@ -8250,16 +8242,16 @@
       <c r="G87" s="15">
         <v>127</v>
       </c>
-      <c r="H87" s="39" t="str">
-        <f t="shared" si="8"/>
+      <c r="H87" s="36" t="str">
+        <f t="shared" si="9"/>
         <v>7F</v>
       </c>
       <c r="I87" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>69.850000000000009</v>
       </c>
-      <c r="J87" s="42">
-        <f t="shared" si="10"/>
+      <c r="J87" s="38">
+        <f t="shared" si="11"/>
         <v>4060.85</v>
       </c>
     </row>
@@ -8267,16 +8259,16 @@
       <c r="G88" s="15">
         <v>127</v>
       </c>
-      <c r="H88" s="39" t="str">
-        <f t="shared" si="8"/>
+      <c r="H88" s="36" t="str">
+        <f t="shared" si="9"/>
         <v>7F</v>
       </c>
       <c r="I88" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>69.850000000000009</v>
       </c>
-      <c r="J88" s="42">
-        <f t="shared" si="10"/>
+      <c r="J88" s="38">
+        <f t="shared" si="11"/>
         <v>4145.8500000000004</v>
       </c>
     </row>
@@ -8284,16 +8276,16 @@
       <c r="G89" s="16">
         <v>127</v>
       </c>
-      <c r="H89" s="40" t="str">
-        <f t="shared" si="8"/>
+      <c r="H89" s="37" t="str">
+        <f t="shared" si="9"/>
         <v>7F</v>
       </c>
       <c r="I89" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>69.850000000000009</v>
       </c>
-      <c r="J89" s="43">
-        <f t="shared" si="10"/>
+      <c r="J89" s="39">
+        <f t="shared" si="11"/>
         <v>4245.8500000000004</v>
       </c>
     </row>
@@ -8303,10 +8295,10 @@
       </c>
     </row>
     <row r="92" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G92" s="36"/>
-      <c r="H92" s="36"/>
-      <c r="I92" s="36"/>
-      <c r="J92" s="36"/>
+      <c r="G92" s="45"/>
+      <c r="H92" s="45"/>
+      <c r="I92" s="45"/>
+      <c r="J92" s="45"/>
     </row>
     <row r="93" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B93" s="22" t="s">
@@ -8322,10 +8314,10 @@
         <v>23</v>
       </c>
       <c r="F93" s="25"/>
-      <c r="G93" s="41" t="s">
+      <c r="G93" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="H93" s="38"/>
+      <c r="H93" s="44"/>
       <c r="I93" s="29" t="s">
         <v>28</v>
       </c>
@@ -8369,14 +8361,14 @@
       <c r="D95" s="18">
         <v>3300</v>
       </c>
-      <c r="E95" s="39">
+      <c r="E95" s="36">
         <v>0</v>
       </c>
       <c r="F95" s="8"/>
       <c r="G95" s="15">
         <v>-128</v>
       </c>
-      <c r="H95" s="39" t="str">
+      <c r="H95" s="36" t="str">
         <f>DEC2HEX(G95, 2)</f>
         <v>FFFFFFFF80</v>
       </c>
@@ -8384,8 +8376,8 @@
         <f>G95*0.55</f>
         <v>-70.400000000000006</v>
       </c>
-      <c r="J95" s="42">
-        <f>D95+I95</f>
+      <c r="J95" s="38">
+        <f t="shared" ref="J95:J110" si="12">D95+I95</f>
         <v>3229.6</v>
       </c>
     </row>
@@ -8399,23 +8391,23 @@
       <c r="D96" s="19">
         <v>3571</v>
       </c>
-      <c r="E96" s="39">
+      <c r="E96" s="36">
         <v>0</v>
       </c>
       <c r="F96" s="8"/>
       <c r="G96" s="15">
         <v>-128</v>
       </c>
-      <c r="H96" s="39" t="str">
-        <f t="shared" ref="H96:H110" si="11">DEC2HEX(G96, 2)</f>
+      <c r="H96" s="36" t="str">
+        <f t="shared" ref="H96:H110" si="13">DEC2HEX(G96, 2)</f>
         <v>FFFFFFFF80</v>
       </c>
       <c r="I96" s="1">
-        <f t="shared" ref="I96:I110" si="12">G96*0.55</f>
+        <f t="shared" ref="I96:I110" si="14">G96*0.55</f>
         <v>-70.400000000000006</v>
       </c>
-      <c r="J96" s="42">
-        <f>D96+I96</f>
+      <c r="J96" s="38">
+        <f t="shared" si="12"/>
         <v>3500.6</v>
       </c>
     </row>
@@ -8429,23 +8421,23 @@
       <c r="D97" s="19">
         <v>3651</v>
       </c>
-      <c r="E97" s="39">
+      <c r="E97" s="36">
         <v>0</v>
       </c>
       <c r="F97" s="8"/>
       <c r="G97" s="15">
         <v>-128</v>
       </c>
-      <c r="H97" s="39" t="str">
-        <f t="shared" si="11"/>
+      <c r="H97" s="36" t="str">
+        <f t="shared" si="13"/>
         <v>FFFFFFFF80</v>
       </c>
       <c r="I97" s="1">
+        <f t="shared" si="14"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J97" s="38">
         <f t="shared" si="12"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J97" s="42">
-        <f>D97+I97</f>
         <v>3580.6</v>
       </c>
     </row>
@@ -8459,23 +8451,23 @@
       <c r="D98" s="19">
         <v>3675</v>
       </c>
-      <c r="E98" s="39">
+      <c r="E98" s="36">
         <v>0</v>
       </c>
       <c r="F98" s="8"/>
       <c r="G98" s="15">
         <v>-128</v>
       </c>
-      <c r="H98" s="39" t="str">
-        <f t="shared" si="11"/>
+      <c r="H98" s="36" t="str">
+        <f t="shared" si="13"/>
         <v>FFFFFFFF80</v>
       </c>
       <c r="I98" s="1">
+        <f t="shared" si="14"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J98" s="38">
         <f t="shared" si="12"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J98" s="42">
-        <f>D98+I98</f>
         <v>3604.6</v>
       </c>
     </row>
@@ -8489,23 +8481,23 @@
       <c r="D99" s="19">
         <v>3710</v>
       </c>
-      <c r="E99" s="39">
+      <c r="E99" s="36">
         <v>0</v>
       </c>
       <c r="F99" s="8"/>
       <c r="G99" s="15">
         <v>-128</v>
       </c>
-      <c r="H99" s="39" t="str">
-        <f t="shared" si="11"/>
+      <c r="H99" s="36" t="str">
+        <f t="shared" si="13"/>
         <v>FFFFFFFF80</v>
       </c>
       <c r="I99" s="1">
+        <f t="shared" si="14"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J99" s="38">
         <f t="shared" si="12"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J99" s="42">
-        <f>D99+I99</f>
         <v>3639.6</v>
       </c>
     </row>
@@ -8519,23 +8511,23 @@
       <c r="D100" s="19">
         <v>3743</v>
       </c>
-      <c r="E100" s="39">
+      <c r="E100" s="36">
         <v>0</v>
       </c>
       <c r="F100" s="8"/>
       <c r="G100" s="15">
         <v>-128</v>
       </c>
-      <c r="H100" s="39" t="str">
-        <f t="shared" si="11"/>
+      <c r="H100" s="36" t="str">
+        <f t="shared" si="13"/>
         <v>FFFFFFFF80</v>
       </c>
       <c r="I100" s="1">
+        <f t="shared" si="14"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J100" s="38">
         <f t="shared" si="12"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J100" s="42">
-        <f>D100+I100</f>
         <v>3672.6</v>
       </c>
     </row>
@@ -8549,23 +8541,23 @@
       <c r="D101" s="19">
         <v>3761</v>
       </c>
-      <c r="E101" s="39">
+      <c r="E101" s="36">
         <v>0</v>
       </c>
       <c r="F101" s="8"/>
       <c r="G101" s="15">
         <v>-128</v>
       </c>
-      <c r="H101" s="39" t="str">
-        <f t="shared" si="11"/>
+      <c r="H101" s="36" t="str">
+        <f t="shared" si="13"/>
         <v>FFFFFFFF80</v>
       </c>
       <c r="I101" s="1">
+        <f t="shared" si="14"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J101" s="38">
         <f t="shared" si="12"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J101" s="42">
-        <f>D101+I101</f>
         <v>3690.6</v>
       </c>
     </row>
@@ -8579,23 +8571,23 @@
       <c r="D102" s="19">
         <v>3770</v>
       </c>
-      <c r="E102" s="39">
+      <c r="E102" s="36">
         <v>0</v>
       </c>
       <c r="F102" s="8"/>
       <c r="G102" s="15">
         <v>-128</v>
       </c>
-      <c r="H102" s="39" t="str">
-        <f t="shared" si="11"/>
+      <c r="H102" s="36" t="str">
+        <f t="shared" si="13"/>
         <v>FFFFFFFF80</v>
       </c>
       <c r="I102" s="1">
+        <f t="shared" si="14"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J102" s="38">
         <f t="shared" si="12"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J102" s="42">
-        <f>D102+I102</f>
         <v>3699.6</v>
       </c>
     </row>
@@ -8609,23 +8601,23 @@
       <c r="D103" s="19">
         <v>3790</v>
       </c>
-      <c r="E103" s="39">
+      <c r="E103" s="36">
         <v>0</v>
       </c>
       <c r="F103" s="8"/>
       <c r="G103" s="15">
         <v>-128</v>
       </c>
-      <c r="H103" s="39" t="str">
-        <f t="shared" si="11"/>
+      <c r="H103" s="36" t="str">
+        <f t="shared" si="13"/>
         <v>FFFFFFFF80</v>
       </c>
       <c r="I103" s="1">
+        <f t="shared" si="14"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J103" s="38">
         <f t="shared" si="12"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J103" s="42">
-        <f>D103+I103</f>
         <v>3719.6</v>
       </c>
     </row>
@@ -8639,23 +8631,23 @@
       <c r="D104" s="19">
         <v>3825</v>
       </c>
-      <c r="E104" s="39">
+      <c r="E104" s="36">
         <v>0</v>
       </c>
       <c r="F104" s="8"/>
       <c r="G104" s="15">
         <v>-128</v>
       </c>
-      <c r="H104" s="39" t="str">
-        <f t="shared" si="11"/>
+      <c r="H104" s="36" t="str">
+        <f t="shared" si="13"/>
         <v>FFFFFFFF80</v>
       </c>
       <c r="I104" s="1">
+        <f t="shared" si="14"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J104" s="38">
         <f t="shared" si="12"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J104" s="42">
-        <f>D104+I104</f>
         <v>3754.6</v>
       </c>
     </row>
@@ -8669,23 +8661,23 @@
       <c r="D105" s="19">
         <v>3914</v>
       </c>
-      <c r="E105" s="39">
+      <c r="E105" s="36">
         <v>0</v>
       </c>
       <c r="F105" s="8"/>
       <c r="G105" s="15">
         <v>-128</v>
       </c>
-      <c r="H105" s="39" t="str">
-        <f t="shared" si="11"/>
+      <c r="H105" s="36" t="str">
+        <f t="shared" si="13"/>
         <v>FFFFFFFF80</v>
       </c>
       <c r="I105" s="1">
+        <f t="shared" si="14"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J105" s="38">
         <f t="shared" si="12"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J105" s="42">
-        <f>D105+I105</f>
         <v>3843.6</v>
       </c>
     </row>
@@ -8699,23 +8691,23 @@
       <c r="D106" s="19">
         <v>3953</v>
       </c>
-      <c r="E106" s="39">
+      <c r="E106" s="36">
         <v>0</v>
       </c>
       <c r="F106" s="8"/>
       <c r="G106" s="15">
         <v>-128</v>
       </c>
-      <c r="H106" s="39" t="str">
-        <f t="shared" si="11"/>
+      <c r="H106" s="36" t="str">
+        <f t="shared" si="13"/>
         <v>FFFFFFFF80</v>
       </c>
       <c r="I106" s="1">
+        <f t="shared" si="14"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J106" s="38">
         <f t="shared" si="12"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J106" s="42">
-        <f>D106+I106</f>
         <v>3882.6</v>
       </c>
     </row>
@@ -8729,23 +8721,23 @@
       <c r="D107" s="19">
         <v>3990</v>
       </c>
-      <c r="E107" s="39">
+      <c r="E107" s="36">
         <v>0</v>
       </c>
       <c r="F107" s="8"/>
       <c r="G107" s="15">
         <v>-128</v>
       </c>
-      <c r="H107" s="39" t="str">
-        <f t="shared" si="11"/>
+      <c r="H107" s="36" t="str">
+        <f t="shared" si="13"/>
         <v>FFFFFFFF80</v>
       </c>
       <c r="I107" s="1">
+        <f t="shared" si="14"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J107" s="38">
         <f t="shared" si="12"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J107" s="42">
-        <f>D107+I107</f>
         <v>3919.6</v>
       </c>
     </row>
@@ -8759,23 +8751,23 @@
       <c r="D108" s="19">
         <v>4088</v>
       </c>
-      <c r="E108" s="39">
+      <c r="E108" s="36">
         <v>0</v>
       </c>
       <c r="F108" s="8"/>
       <c r="G108" s="15">
         <v>-128</v>
       </c>
-      <c r="H108" s="39" t="str">
-        <f t="shared" si="11"/>
+      <c r="H108" s="36" t="str">
+        <f t="shared" si="13"/>
         <v>FFFFFFFF80</v>
       </c>
       <c r="I108" s="1">
+        <f t="shared" si="14"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J108" s="38">
         <f t="shared" si="12"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J108" s="42">
-        <f>D108+I108</f>
         <v>4017.6</v>
       </c>
     </row>
@@ -8789,23 +8781,23 @@
       <c r="D109" s="19">
         <v>4197</v>
       </c>
-      <c r="E109" s="39">
+      <c r="E109" s="36">
         <v>0</v>
       </c>
       <c r="F109" s="8"/>
       <c r="G109" s="15">
         <v>-128</v>
       </c>
-      <c r="H109" s="39" t="str">
-        <f t="shared" si="11"/>
+      <c r="H109" s="36" t="str">
+        <f t="shared" si="13"/>
         <v>FFFFFFFF80</v>
       </c>
       <c r="I109" s="1">
+        <f t="shared" si="14"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J109" s="38">
         <f t="shared" si="12"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J109" s="42">
-        <f>D109+I109</f>
         <v>4126.6000000000004</v>
       </c>
     </row>
@@ -8819,23 +8811,23 @@
       <c r="D110" s="20">
         <v>4313</v>
       </c>
-      <c r="E110" s="40">
+      <c r="E110" s="37">
         <v>0</v>
       </c>
       <c r="F110" s="8"/>
       <c r="G110" s="16">
         <v>-128</v>
       </c>
-      <c r="H110" s="40" t="str">
-        <f t="shared" si="11"/>
+      <c r="H110" s="37" t="str">
+        <f t="shared" si="13"/>
         <v>FFFFFFFF80</v>
       </c>
       <c r="I110" s="2">
+        <f t="shared" si="14"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J110" s="39">
         <f t="shared" si="12"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J110" s="43">
-        <f>D110+I110</f>
         <v>4242.6000000000004</v>
       </c>
     </row>
@@ -8851,10 +8843,10 @@
       <c r="O111" s="7"/>
     </row>
     <row r="112" spans="2:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G112" s="41" t="s">
+      <c r="G112" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="H112" s="38"/>
+      <c r="H112" s="44"/>
       <c r="I112" s="29" t="s">
         <v>28</v>
       </c>
@@ -8880,7 +8872,7 @@
       <c r="G114" s="15">
         <v>127</v>
       </c>
-      <c r="H114" s="39" t="str">
+      <c r="H114" s="36" t="str">
         <f>DEC2HEX(G114, 2)</f>
         <v>7F</v>
       </c>
@@ -8888,7 +8880,7 @@
         <f>G114*0.55</f>
         <v>69.850000000000009</v>
       </c>
-      <c r="J114" s="42">
+      <c r="J114" s="38">
         <f>D95+I114</f>
         <v>3369.85</v>
       </c>
@@ -8897,16 +8889,16 @@
       <c r="G115" s="15">
         <v>127</v>
       </c>
-      <c r="H115" s="39" t="str">
-        <f t="shared" ref="H115:H129" si="13">DEC2HEX(G115, 2)</f>
+      <c r="H115" s="36" t="str">
+        <f t="shared" ref="H115:H129" si="15">DEC2HEX(G115, 2)</f>
         <v>7F</v>
       </c>
       <c r="I115" s="1">
-        <f t="shared" ref="I115:I129" si="14">G115*0.55</f>
+        <f t="shared" ref="I115:I129" si="16">G115*0.55</f>
         <v>69.850000000000009</v>
       </c>
-      <c r="J115" s="42">
-        <f t="shared" ref="J115:J129" si="15">D96+I115</f>
+      <c r="J115" s="38">
+        <f t="shared" ref="J115:J129" si="17">D96+I115</f>
         <v>3640.85</v>
       </c>
     </row>
@@ -8914,16 +8906,16 @@
       <c r="G116" s="15">
         <v>127</v>
       </c>
-      <c r="H116" s="39" t="str">
-        <f t="shared" si="13"/>
+      <c r="H116" s="36" t="str">
+        <f t="shared" si="15"/>
         <v>7F</v>
       </c>
       <c r="I116" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>69.850000000000009</v>
       </c>
-      <c r="J116" s="42">
-        <f t="shared" si="15"/>
+      <c r="J116" s="38">
+        <f t="shared" si="17"/>
         <v>3720.85</v>
       </c>
     </row>
@@ -8931,16 +8923,16 @@
       <c r="G117" s="15">
         <v>127</v>
       </c>
-      <c r="H117" s="39" t="str">
-        <f t="shared" si="13"/>
+      <c r="H117" s="36" t="str">
+        <f t="shared" si="15"/>
         <v>7F</v>
       </c>
       <c r="I117" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>69.850000000000009</v>
       </c>
-      <c r="J117" s="42">
-        <f t="shared" si="15"/>
+      <c r="J117" s="38">
+        <f t="shared" si="17"/>
         <v>3744.85</v>
       </c>
     </row>
@@ -8948,16 +8940,16 @@
       <c r="G118" s="15">
         <v>127</v>
       </c>
-      <c r="H118" s="39" t="str">
-        <f t="shared" si="13"/>
+      <c r="H118" s="36" t="str">
+        <f t="shared" si="15"/>
         <v>7F</v>
       </c>
       <c r="I118" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>69.850000000000009</v>
       </c>
-      <c r="J118" s="42">
-        <f t="shared" si="15"/>
+      <c r="J118" s="38">
+        <f t="shared" si="17"/>
         <v>3779.85</v>
       </c>
     </row>
@@ -8965,16 +8957,16 @@
       <c r="G119" s="15">
         <v>127</v>
       </c>
-      <c r="H119" s="39" t="str">
-        <f t="shared" si="13"/>
+      <c r="H119" s="36" t="str">
+        <f t="shared" si="15"/>
         <v>7F</v>
       </c>
       <c r="I119" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>69.850000000000009</v>
       </c>
-      <c r="J119" s="42">
-        <f t="shared" si="15"/>
+      <c r="J119" s="38">
+        <f t="shared" si="17"/>
         <v>3812.85</v>
       </c>
     </row>
@@ -8982,16 +8974,16 @@
       <c r="G120" s="15">
         <v>127</v>
       </c>
-      <c r="H120" s="39" t="str">
-        <f t="shared" si="13"/>
+      <c r="H120" s="36" t="str">
+        <f t="shared" si="15"/>
         <v>7F</v>
       </c>
       <c r="I120" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>69.850000000000009</v>
       </c>
-      <c r="J120" s="42">
-        <f t="shared" si="15"/>
+      <c r="J120" s="38">
+        <f t="shared" si="17"/>
         <v>3830.85</v>
       </c>
     </row>
@@ -8999,16 +8991,16 @@
       <c r="G121" s="15">
         <v>127</v>
       </c>
-      <c r="H121" s="39" t="str">
-        <f t="shared" si="13"/>
+      <c r="H121" s="36" t="str">
+        <f t="shared" si="15"/>
         <v>7F</v>
       </c>
       <c r="I121" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>69.850000000000009</v>
       </c>
-      <c r="J121" s="42">
-        <f t="shared" si="15"/>
+      <c r="J121" s="38">
+        <f t="shared" si="17"/>
         <v>3839.85</v>
       </c>
     </row>
@@ -9016,16 +9008,16 @@
       <c r="G122" s="15">
         <v>127</v>
       </c>
-      <c r="H122" s="39" t="str">
-        <f t="shared" si="13"/>
+      <c r="H122" s="36" t="str">
+        <f t="shared" si="15"/>
         <v>7F</v>
       </c>
       <c r="I122" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>69.850000000000009</v>
       </c>
-      <c r="J122" s="42">
-        <f t="shared" si="15"/>
+      <c r="J122" s="38">
+        <f t="shared" si="17"/>
         <v>3859.85</v>
       </c>
     </row>
@@ -9033,16 +9025,16 @@
       <c r="G123" s="15">
         <v>127</v>
       </c>
-      <c r="H123" s="39" t="str">
-        <f t="shared" si="13"/>
+      <c r="H123" s="36" t="str">
+        <f t="shared" si="15"/>
         <v>7F</v>
       </c>
       <c r="I123" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>69.850000000000009</v>
       </c>
-      <c r="J123" s="42">
-        <f t="shared" si="15"/>
+      <c r="J123" s="38">
+        <f t="shared" si="17"/>
         <v>3894.85</v>
       </c>
     </row>
@@ -9050,16 +9042,16 @@
       <c r="G124" s="15">
         <v>127</v>
       </c>
-      <c r="H124" s="39" t="str">
-        <f t="shared" si="13"/>
+      <c r="H124" s="36" t="str">
+        <f t="shared" si="15"/>
         <v>7F</v>
       </c>
       <c r="I124" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>69.850000000000009</v>
       </c>
-      <c r="J124" s="42">
-        <f t="shared" si="15"/>
+      <c r="J124" s="38">
+        <f t="shared" si="17"/>
         <v>3983.85</v>
       </c>
     </row>
@@ -9067,16 +9059,16 @@
       <c r="G125" s="15">
         <v>127</v>
       </c>
-      <c r="H125" s="39" t="str">
-        <f t="shared" si="13"/>
+      <c r="H125" s="36" t="str">
+        <f t="shared" si="15"/>
         <v>7F</v>
       </c>
       <c r="I125" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>69.850000000000009</v>
       </c>
-      <c r="J125" s="42">
-        <f t="shared" si="15"/>
+      <c r="J125" s="38">
+        <f t="shared" si="17"/>
         <v>4022.85</v>
       </c>
     </row>
@@ -9084,16 +9076,16 @@
       <c r="G126" s="15">
         <v>127</v>
       </c>
-      <c r="H126" s="39" t="str">
-        <f t="shared" si="13"/>
+      <c r="H126" s="36" t="str">
+        <f t="shared" si="15"/>
         <v>7F</v>
       </c>
       <c r="I126" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>69.850000000000009</v>
       </c>
-      <c r="J126" s="42">
-        <f t="shared" si="15"/>
+      <c r="J126" s="38">
+        <f t="shared" si="17"/>
         <v>4059.85</v>
       </c>
     </row>
@@ -9101,16 +9093,16 @@
       <c r="G127" s="15">
         <v>127</v>
       </c>
-      <c r="H127" s="39" t="str">
-        <f t="shared" si="13"/>
+      <c r="H127" s="36" t="str">
+        <f t="shared" si="15"/>
         <v>7F</v>
       </c>
       <c r="I127" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>69.850000000000009</v>
       </c>
-      <c r="J127" s="42">
-        <f t="shared" si="15"/>
+      <c r="J127" s="38">
+        <f t="shared" si="17"/>
         <v>4157.8500000000004</v>
       </c>
     </row>
@@ -9118,16 +9110,16 @@
       <c r="G128" s="15">
         <v>127</v>
       </c>
-      <c r="H128" s="39" t="str">
-        <f t="shared" si="13"/>
+      <c r="H128" s="36" t="str">
+        <f t="shared" si="15"/>
         <v>7F</v>
       </c>
       <c r="I128" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>69.850000000000009</v>
       </c>
-      <c r="J128" s="42">
-        <f t="shared" si="15"/>
+      <c r="J128" s="38">
+        <f t="shared" si="17"/>
         <v>4266.8500000000004</v>
       </c>
     </row>
@@ -9135,31 +9127,31 @@
       <c r="G129" s="16">
         <v>127</v>
       </c>
-      <c r="H129" s="40" t="str">
-        <f t="shared" si="13"/>
+      <c r="H129" s="37" t="str">
+        <f t="shared" si="15"/>
         <v>7F</v>
       </c>
       <c r="I129" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>69.850000000000009</v>
       </c>
-      <c r="J129" s="43">
-        <f t="shared" si="15"/>
+      <c r="J129" s="39">
+        <f t="shared" si="17"/>
         <v>4382.8500000000004</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G52:J52"/>
     <mergeCell ref="G53:H53"/>
     <mergeCell ref="G72:H72"/>
     <mergeCell ref="G92:J92"/>
     <mergeCell ref="G93:H93"/>
     <mergeCell ref="G112:H112"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G52:J52"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="269" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>

--- a/Docs/Config/STC3115 OCV curve - default register values.xlsx
+++ b/Docs/Config/STC3115 OCV curve - default register values.xlsx
@@ -107,9 +107,6 @@
 (mV)</t>
   </si>
   <si>
-    <t>Example with user specific battery</t>
-  </si>
-  <si>
     <t>Default 
 register value (mV)</t>
   </si>
@@ -155,6 +152,9 @@
   <si>
     <t>Offset MAX (8bit)
 Dec (0.55 mV)</t>
+  </si>
+  <si>
+    <t>Example with user specific battery (OCV curve measure with specific equipement)</t>
   </si>
 </sst>
 </file>
@@ -476,17 +476,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -889,11 +889,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="415123048"/>
-        <c:axId val="415123440"/>
+        <c:axId val="262779632"/>
+        <c:axId val="262780024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="415123048"/>
+        <c:axId val="262779632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1007,12 +1007,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415123440"/>
+        <c:crossAx val="262780024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="415123440"/>
+        <c:axId val="262780024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4400"/>
@@ -1131,7 +1131,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415123048"/>
+        <c:crossAx val="262779632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1588,11 +1588,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="415123832"/>
-        <c:axId val="415124224"/>
+        <c:axId val="262780808"/>
+        <c:axId val="262781200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="415123832"/>
+        <c:axId val="262780808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1706,12 +1706,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415124224"/>
+        <c:crossAx val="262781200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="415124224"/>
+        <c:axId val="262781200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4400"/>
@@ -1830,7 +1830,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415123832"/>
+        <c:crossAx val="262780808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2441,11 +2441,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="413130440"/>
-        <c:axId val="413130832"/>
+        <c:axId val="264310064"/>
+        <c:axId val="264310456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="413130440"/>
+        <c:axId val="264310064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2559,12 +2559,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413130832"/>
+        <c:crossAx val="264310456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="413130832"/>
+        <c:axId val="264310456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4400"/>
@@ -2683,7 +2683,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413130440"/>
+        <c:crossAx val="264310064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3294,11 +3294,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="413131616"/>
-        <c:axId val="413132008"/>
+        <c:axId val="264313200"/>
+        <c:axId val="264313592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="413131616"/>
+        <c:axId val="264313200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3412,12 +3412,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413132008"/>
+        <c:crossAx val="264313592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="413132008"/>
+        <c:axId val="264313592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4400"/>
@@ -3536,7 +3536,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413131616"/>
+        <c:crossAx val="264313200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6262,7 +6262,7 @@
   <dimension ref="A1:Q129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G29" sqref="G29:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6306,12 +6306,12 @@
       <c r="B5" s="9"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G6" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
+      <c r="G6" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
     </row>
     <row r="7" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="22" t="s">
@@ -6321,22 +6321,22 @@
         <v>3</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="24" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H7" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="44"/>
+      <c r="I7" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="45"/>
     </row>
     <row r="8" spans="1:17" ht="49.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="21"/>
@@ -6345,7 +6345,7 @@
         <v>22</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="26" t="s">
@@ -6875,12 +6875,12 @@
       </c>
     </row>
     <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G29" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
+      <c r="G29" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
     </row>
     <row r="30" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="22" t="s">
@@ -6890,31 +6890,31 @@
         <v>3</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E30" s="24" t="s">
         <v>23</v>
       </c>
       <c r="F30" s="25"/>
       <c r="G30" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H30" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="I30" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="J30" s="44"/>
+      <c r="I30" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" s="45"/>
     </row>
     <row r="31" spans="1:17" ht="37.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="21"/>
       <c r="C31" s="12"/>
       <c r="D31" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="26" t="s">
@@ -7440,14 +7440,14 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G52" s="45"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="45"/>
-      <c r="J52" s="45"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="43"/>
     </row>
     <row r="53" spans="1:15" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="22" t="s">
@@ -7457,21 +7457,21 @@
         <v>3</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E53" s="24" t="s">
         <v>23</v>
       </c>
       <c r="F53" s="25"/>
-      <c r="G53" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="H53" s="44"/>
+      <c r="G53" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="H53" s="45"/>
       <c r="I53" s="29" t="s">
         <v>28</v>
       </c>
       <c r="J53" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="49.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7481,14 +7481,14 @@
         <v>22</v>
       </c>
       <c r="E54" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H54" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I54" s="26" t="s">
         <v>27</v>
@@ -7992,23 +7992,23 @@
       <c r="O71" s="7"/>
     </row>
     <row r="72" spans="2:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G72" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="H72" s="44"/>
+      <c r="G72" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="H72" s="45"/>
       <c r="I72" s="29" t="s">
         <v>28</v>
       </c>
       <c r="J72" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" spans="2:15" ht="49.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G73" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H73" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I73" s="26" t="s">
         <v>27</v>
@@ -8291,14 +8291,14 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G92" s="45"/>
-      <c r="H92" s="45"/>
-      <c r="I92" s="45"/>
-      <c r="J92" s="45"/>
+      <c r="G92" s="43"/>
+      <c r="H92" s="43"/>
+      <c r="I92" s="43"/>
+      <c r="J92" s="43"/>
     </row>
     <row r="93" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B93" s="22" t="s">
@@ -8308,38 +8308,38 @@
         <v>3</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E93" s="24" t="s">
         <v>23</v>
       </c>
       <c r="F93" s="25"/>
-      <c r="G93" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="H93" s="44"/>
+      <c r="G93" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="H93" s="45"/>
       <c r="I93" s="29" t="s">
         <v>28</v>
       </c>
       <c r="J93" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="49.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B94" s="21"/>
       <c r="C94" s="12"/>
       <c r="D94" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E94" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F94" s="6"/>
       <c r="G94" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H94" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I94" s="26" t="s">
         <v>27</v>
@@ -8843,23 +8843,23 @@
       <c r="O111" s="7"/>
     </row>
     <row r="112" spans="2:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G112" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="H112" s="44"/>
+      <c r="G112" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="H112" s="45"/>
       <c r="I112" s="29" t="s">
         <v>28</v>
       </c>
       <c r="J112" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="113" spans="7:10" ht="49.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G113" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H113" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I113" s="26" t="s">
         <v>27</v>
@@ -9142,16 +9142,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G92:J92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G112:H112"/>
     <mergeCell ref="G6:J6"/>
     <mergeCell ref="G29:J29"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="G52:J52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="G92:J92"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G112:H112"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="269" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>

--- a/Docs/Config/STC3115 OCV curve - default register values.xlsx
+++ b/Docs/Config/STC3115 OCV curve - default register values.xlsx
@@ -8,13 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="xl_DCF_History" sheetId="2" state="veryHidden" r:id="rId2"/>
+    <sheet name="Classified as UnClassified" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="56">
   <si>
     <t>Hex (0.55 mV)</t>
   </si>
@@ -94,9 +96,6 @@
     <t>[mV]</t>
   </si>
   <si>
-    <t xml:space="preserve">STC3115 OCV registers: </t>
-  </si>
-  <si>
     <t>How to fill the STC3115 registers depending on battery characteristics</t>
   </si>
   <si>
@@ -155,6 +154,52 @@
   </si>
   <si>
     <t>Example with user specific battery (OCV curve measure with specific equipement)</t>
+  </si>
+  <si>
+    <t>Dec (0.55 mV)
+adjusted</t>
+  </si>
+  <si>
+    <t>CLINAME</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>DONEBY</t>
+  </si>
+  <si>
+    <t>IPADDRESS</t>
+  </si>
+  <si>
+    <t>APPVER</t>
+  </si>
+  <si>
+    <t>RANDOM</t>
+  </si>
+  <si>
+    <t>CHECKSUM</t>
+  </si>
+  <si>
+    <t>౞౷ౌ౵౪౼౼౲౯౲౮౭</t>
+  </si>
+  <si>
+    <t>఻స఺ీస఻హ఺ీ఩఩఺ాృా఼ౙౖ఩ఱ౐ౖౝశుృహల</t>
+  </si>
+  <si>
+    <t>౜ౝ౥౐౸౼౬౲౷౲౪</t>
+  </si>
+  <si>
+    <t>౜ౌౣౌౠౕూ఼ఽు</t>
+  </si>
+  <si>
+    <t>ఽషహష఻షహ</t>
+  </si>
+  <si>
+    <t>ఽఽాా</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STC3115 OCV registers lookup table: </t>
   </si>
 </sst>
 </file>
@@ -222,7 +267,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -370,11 +415,100 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -479,15 +613,45 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -889,11 +1053,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="262779632"/>
-        <c:axId val="262780024"/>
+        <c:axId val="199012840"/>
+        <c:axId val="199013232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="262779632"/>
+        <c:axId val="199012840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1007,12 +1171,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="262780024"/>
+        <c:crossAx val="199013232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="262780024"/>
+        <c:axId val="199013232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4400"/>
@@ -1131,7 +1295,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="262779632"/>
+        <c:crossAx val="199012840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1588,11 +1752,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="262780808"/>
-        <c:axId val="262781200"/>
+        <c:axId val="199014016"/>
+        <c:axId val="199014408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="262780808"/>
+        <c:axId val="199014016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1706,12 +1870,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="262781200"/>
+        <c:crossAx val="199014408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="262781200"/>
+        <c:axId val="199014408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4400"/>
@@ -1830,7 +1994,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="262780808"/>
+        <c:crossAx val="199014016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2441,11 +2605,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="264310064"/>
-        <c:axId val="264310456"/>
+        <c:axId val="199015192"/>
+        <c:axId val="199015584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="264310064"/>
+        <c:axId val="199015192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2559,12 +2723,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264310456"/>
+        <c:crossAx val="199015584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="264310456"/>
+        <c:axId val="199015584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4400"/>
@@ -2683,7 +2847,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264310064"/>
+        <c:crossAx val="199015192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2880,7 +3044,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$95:$C$110</c:f>
+              <c:f>Sheet1!$C$96:$C$111</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2937,7 +3101,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$95:$D$110</c:f>
+              <c:f>Sheet1!$D$96:$D$111</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3026,7 +3190,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$95:$C$110</c:f>
+              <c:f>Sheet1!$C$96:$C$111</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3083,7 +3247,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$95:$J$110</c:f>
+              <c:f>Sheet1!$J$96:$J$111</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3172,7 +3336,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$95:$C$110</c:f>
+              <c:f>Sheet1!$C$96:$C$111</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3229,7 +3393,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$114:$J$129</c:f>
+              <c:f>Sheet1!$J$115:$J$130</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3294,11 +3458,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="264313200"/>
-        <c:axId val="264313592"/>
+        <c:axId val="199016368"/>
+        <c:axId val="302756560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="264313200"/>
+        <c:axId val="199016368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3412,12 +3576,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264313592"/>
+        <c:crossAx val="302756560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="264313592"/>
+        <c:axId val="302756560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4400"/>
@@ -3536,7 +3700,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264313200"/>
+        <c:crossAx val="199016368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5845,13 +6009,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>14286</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>476249</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -5875,13 +6039,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>471488</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
@@ -5907,13 +6071,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>461963</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
@@ -5939,15 +6103,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>461963</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6259,11 +6423,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q129"/>
+  <dimension ref="A1:R130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29:J29"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6274,46 +6436,47 @@
     <col min="7" max="7" width="11.85546875" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1"/>
-    <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" customWidth="1"/>
+    <col min="10" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="8" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" s="23"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="9"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G6" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-    </row>
-    <row r="7" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="44"/>
+    </row>
+    <row r="7" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="22" t="s">
         <v>2</v>
       </c>
@@ -6321,53 +6484,57 @@
         <v>3</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="24" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="45"/>
-    </row>
-    <row r="8" spans="1:17" ht="49.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="54"/>
+      <c r="K7" s="55"/>
+    </row>
+    <row r="8" spans="1:18" ht="37.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="21"/>
       <c r="C8" s="12"/>
       <c r="D8" s="28" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="26" t="s">
         <v>24</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="6"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="8"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="8"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q8" s="6"/>
+      <c r="R8" s="8"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
@@ -6388,16 +6555,20 @@
         <f>G9-D9</f>
         <v>-70</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="50">
         <f>ROUND(H9/0.55, 0)</f>
         <v>-127</v>
       </c>
-      <c r="J9" s="30" t="str">
-        <f>DEC2HEX(I9, 2)</f>
+      <c r="J9" s="47">
+        <f>IF(I9&lt;-128, -128, IF(I9&gt;127, 127, I9))</f>
+        <v>-127</v>
+      </c>
+      <c r="K9" s="30" t="str">
+        <f>DEC2HEX(J9, 2)</f>
         <v>FFFFFFFF81</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
@@ -6418,16 +6589,20 @@
         <f t="shared" ref="H10:H24" si="0">G10-D10</f>
         <v>-70</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="50">
         <f t="shared" ref="I10:I24" si="1">ROUND(H10/0.55, 0)</f>
         <v>-127</v>
       </c>
-      <c r="J10" s="30" t="str">
-        <f t="shared" ref="J10:J24" si="2">DEC2HEX(I10, 2)</f>
+      <c r="J10" s="47">
+        <f t="shared" ref="J10:J24" si="2">IF(I10&lt;-128, -128, IF(I10&gt;127, 127, I10))</f>
+        <v>-127</v>
+      </c>
+      <c r="K10" s="30" t="str">
+        <f t="shared" ref="K10:K24" si="3">DEC2HEX(J10, 2)</f>
         <v>FFFFFFFF81</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
@@ -6448,16 +6623,20 @@
         <f t="shared" si="0"/>
         <v>-57</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="50">
         <f t="shared" si="1"/>
         <v>-104</v>
       </c>
-      <c r="J11" s="30" t="str">
+      <c r="J11" s="47">
         <f t="shared" si="2"/>
+        <v>-104</v>
+      </c>
+      <c r="K11" s="30" t="str">
+        <f t="shared" si="3"/>
         <v>FFFFFFFF98</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
@@ -6478,16 +6657,20 @@
         <f t="shared" si="0"/>
         <v>-50</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="50">
         <f t="shared" si="1"/>
         <v>-91</v>
       </c>
-      <c r="J12" s="30" t="str">
+      <c r="J12" s="47">
         <f t="shared" si="2"/>
+        <v>-91</v>
+      </c>
+      <c r="K12" s="30" t="str">
+        <f t="shared" si="3"/>
         <v>FFFFFFFFA5</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -6508,16 +6691,20 @@
         <f t="shared" si="0"/>
         <v>-50</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="50">
         <f t="shared" si="1"/>
         <v>-91</v>
       </c>
-      <c r="J13" s="30" t="str">
+      <c r="J13" s="47">
         <f t="shared" si="2"/>
+        <v>-91</v>
+      </c>
+      <c r="K13" s="30" t="str">
+        <f t="shared" si="3"/>
         <v>FFFFFFFFA5</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
@@ -6538,16 +6725,20 @@
         <f t="shared" si="0"/>
         <v>-42</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="50">
         <f t="shared" si="1"/>
         <v>-76</v>
       </c>
-      <c r="J14" s="30" t="str">
+      <c r="J14" s="47">
         <f t="shared" si="2"/>
+        <v>-76</v>
+      </c>
+      <c r="K14" s="30" t="str">
+        <f t="shared" si="3"/>
         <v>FFFFFFFFB4</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
@@ -6568,16 +6759,20 @@
         <f t="shared" si="0"/>
         <v>-34</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="50">
         <f t="shared" si="1"/>
         <v>-62</v>
       </c>
-      <c r="J15" s="30" t="str">
+      <c r="J15" s="47">
         <f t="shared" si="2"/>
+        <v>-62</v>
+      </c>
+      <c r="K15" s="30" t="str">
+        <f t="shared" si="3"/>
         <v>FFFFFFFFC2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
@@ -6598,16 +6793,20 @@
         <f t="shared" si="0"/>
         <v>-28</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="50">
         <f t="shared" si="1"/>
         <v>-51</v>
       </c>
-      <c r="J16" s="30" t="str">
+      <c r="J16" s="47">
         <f t="shared" si="2"/>
+        <v>-51</v>
+      </c>
+      <c r="K16" s="30" t="str">
+        <f t="shared" si="3"/>
         <v>FFFFFFFFCD</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
@@ -6628,16 +6827,20 @@
         <f t="shared" si="0"/>
         <v>-20</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="50">
         <f t="shared" si="1"/>
         <v>-36</v>
       </c>
-      <c r="J17" s="30" t="str">
+      <c r="J17" s="47">
         <f t="shared" si="2"/>
+        <v>-36</v>
+      </c>
+      <c r="K17" s="30" t="str">
+        <f t="shared" si="3"/>
         <v>FFFFFFFFDC</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
@@ -6658,16 +6861,20 @@
         <f t="shared" si="0"/>
         <v>-9</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="50">
         <f t="shared" si="1"/>
         <v>-16</v>
       </c>
-      <c r="J18" s="30" t="str">
+      <c r="J18" s="47">
         <f t="shared" si="2"/>
+        <v>-16</v>
+      </c>
+      <c r="K18" s="30" t="str">
+        <f t="shared" si="3"/>
         <v>FFFFFFFFF0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
@@ -6688,16 +6895,20 @@
         <f t="shared" si="0"/>
         <v>-28</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="50">
         <f t="shared" si="1"/>
         <v>-51</v>
       </c>
-      <c r="J19" s="30" t="str">
+      <c r="J19" s="47">
         <f t="shared" si="2"/>
+        <v>-51</v>
+      </c>
+      <c r="K19" s="30" t="str">
+        <f t="shared" si="3"/>
         <v>FFFFFFFFCD</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
@@ -6718,16 +6929,20 @@
         <f t="shared" si="0"/>
         <v>-22</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I20" s="50">
         <f t="shared" si="1"/>
         <v>-40</v>
       </c>
-      <c r="J20" s="30" t="str">
+      <c r="J20" s="47">
         <f t="shared" si="2"/>
+        <v>-40</v>
+      </c>
+      <c r="K20" s="30" t="str">
+        <f t="shared" si="3"/>
         <v>FFFFFFFFD8</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
@@ -6748,16 +6963,20 @@
         <f t="shared" si="0"/>
         <v>-15</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="50">
         <f t="shared" si="1"/>
         <v>-27</v>
       </c>
-      <c r="J21" s="30" t="str">
+      <c r="J21" s="47">
         <f t="shared" si="2"/>
+        <v>-27</v>
+      </c>
+      <c r="K21" s="30" t="str">
+        <f t="shared" si="3"/>
         <v>FFFFFFFFE5</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
@@ -6778,16 +6997,20 @@
         <f t="shared" si="0"/>
         <v>-7</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="50">
         <f t="shared" si="1"/>
         <v>-13</v>
       </c>
-      <c r="J22" s="30" t="str">
+      <c r="J22" s="47">
         <f t="shared" si="2"/>
+        <v>-13</v>
+      </c>
+      <c r="K22" s="30" t="str">
+        <f t="shared" si="3"/>
         <v>FFFFFFFFF3</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
@@ -6808,16 +7031,20 @@
         <f t="shared" si="0"/>
         <v>-6</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="50">
         <f t="shared" si="1"/>
         <v>-11</v>
       </c>
-      <c r="J23" s="30" t="str">
+      <c r="J23" s="47">
         <f t="shared" si="2"/>
+        <v>-11</v>
+      </c>
+      <c r="K23" s="30" t="str">
+        <f t="shared" si="3"/>
         <v>FFFFFFFFF5</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>21</v>
       </c>
@@ -6838,16 +7065,20 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="I24" s="16">
+      <c r="I24" s="51">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="J24" s="31" t="str">
+      <c r="J24" s="48">
         <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="K24" s="31" t="str">
+        <f t="shared" si="3"/>
         <v>2A</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G25" s="8"/>
       <c r="H25" s="7"/>
       <c r="I25" s="8"/>
@@ -6855,10 +7086,11 @@
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
-      <c r="N25" s="7"/>
+      <c r="N25" s="8"/>
       <c r="O25" s="7"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P25" s="7"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G26" s="8"/>
       <c r="H26" s="7"/>
       <c r="I26" s="8"/>
@@ -6866,23 +7098,25 @@
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
-      <c r="N26" s="7"/>
+      <c r="N26" s="8"/>
       <c r="O26" s="7"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P26" s="7"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G29" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-    </row>
-    <row r="30" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G29" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="44"/>
+    </row>
+    <row r="30" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="22" t="s">
         <v>2</v>
       </c>
@@ -6890,53 +7124,57 @@
         <v>3</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E30" s="24" t="s">
         <v>23</v>
       </c>
       <c r="F30" s="25"/>
       <c r="G30" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H30" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="I30" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="J30" s="45"/>
-    </row>
-    <row r="31" spans="1:17" ht="37.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" s="54"/>
+      <c r="K30" s="55"/>
+    </row>
+    <row r="31" spans="1:18" ht="37.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="21"/>
       <c r="C31" s="12"/>
       <c r="D31" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="26" t="s">
         <v>24</v>
       </c>
       <c r="H31" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="I31" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="J31" s="14" t="s">
+      <c r="J31" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="L31" s="5"/>
       <c r="M31" s="5"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="6"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="8"/>
       <c r="P31" s="6"/>
-      <c r="Q31" s="8"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q31" s="6"/>
+      <c r="R31" s="8"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>6</v>
       </c>
@@ -6957,16 +7195,20 @@
         <f>G32-D32</f>
         <v>-100</v>
       </c>
-      <c r="I32" s="15">
+      <c r="I32" s="3">
         <f>ROUND(H32/0.55, 0)</f>
         <v>-182</v>
       </c>
-      <c r="J32" s="30" t="str">
-        <f>DEC2HEX(I32, 2)</f>
-        <v>FFFFFFFF4A</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J32" s="47">
+        <f>IF(I32&lt;-128, -128, IF(I32&gt;127, 127, I32))</f>
+        <v>-128</v>
+      </c>
+      <c r="K32" s="30" t="str">
+        <f>DEC2HEX(J32, 2)</f>
+        <v>FFFFFFFF80</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>7</v>
       </c>
@@ -6984,19 +7226,23 @@
         <v>3450</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" ref="H33:H47" si="3">G33-D33</f>
+        <f t="shared" ref="H33:H47" si="4">G33-D33</f>
         <v>-121</v>
       </c>
-      <c r="I33" s="15">
-        <f t="shared" ref="I33:I47" si="4">ROUND(H33/0.55, 0)</f>
+      <c r="I33" s="3">
+        <f t="shared" ref="I33:I47" si="5">ROUND(H33/0.55, 0)</f>
         <v>-220</v>
       </c>
-      <c r="J33" s="30" t="str">
-        <f t="shared" ref="J33:J47" si="5">DEC2HEX(I33, 2)</f>
-        <v>FFFFFFFF24</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J33" s="47">
+        <f t="shared" ref="J33:J47" si="6">IF(I33&lt;-128, -128, IF(I33&gt;127, 127, I33))</f>
+        <v>-128</v>
+      </c>
+      <c r="K33" s="30" t="str">
+        <f t="shared" ref="K33:K47" si="7">DEC2HEX(J33, 2)</f>
+        <v>FFFFFFFF80</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>8</v>
       </c>
@@ -7014,19 +7260,23 @@
         <v>3550</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-101</v>
       </c>
-      <c r="I34" s="15">
-        <f t="shared" si="4"/>
+      <c r="I34" s="3">
+        <f t="shared" si="5"/>
         <v>-184</v>
       </c>
-      <c r="J34" s="30" t="str">
-        <f t="shared" si="5"/>
-        <v>FFFFFFFF48</v>
-      </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J34" s="47">
+        <f t="shared" si="6"/>
+        <v>-128</v>
+      </c>
+      <c r="K34" s="30" t="str">
+        <f t="shared" si="7"/>
+        <v>FFFFFFFF80</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>9</v>
       </c>
@@ -7044,19 +7294,23 @@
         <v>3625</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-50</v>
       </c>
-      <c r="I35" s="15">
-        <f t="shared" si="4"/>
+      <c r="I35" s="3">
+        <f t="shared" si="5"/>
         <v>-91</v>
       </c>
-      <c r="J35" s="30" t="str">
-        <f t="shared" si="5"/>
+      <c r="J35" s="47">
+        <f t="shared" si="6"/>
+        <v>-91</v>
+      </c>
+      <c r="K35" s="30" t="str">
+        <f t="shared" si="7"/>
         <v>FFFFFFFFA5</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>10</v>
       </c>
@@ -7074,19 +7328,23 @@
         <v>3660</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-50</v>
       </c>
-      <c r="I36" s="15">
-        <f t="shared" si="4"/>
+      <c r="I36" s="3">
+        <f t="shared" si="5"/>
         <v>-91</v>
       </c>
-      <c r="J36" s="30" t="str">
-        <f t="shared" si="5"/>
+      <c r="J36" s="47">
+        <f t="shared" si="6"/>
+        <v>-91</v>
+      </c>
+      <c r="K36" s="30" t="str">
+        <f t="shared" si="7"/>
         <v>FFFFFFFFA5</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>11</v>
       </c>
@@ -7104,19 +7362,23 @@
         <v>3690</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-53</v>
       </c>
-      <c r="I37" s="15">
-        <f t="shared" si="4"/>
+      <c r="I37" s="3">
+        <f t="shared" si="5"/>
         <v>-96</v>
       </c>
-      <c r="J37" s="30" t="str">
-        <f t="shared" si="5"/>
+      <c r="J37" s="47">
+        <f t="shared" si="6"/>
+        <v>-96</v>
+      </c>
+      <c r="K37" s="30" t="str">
+        <f t="shared" si="7"/>
         <v>FFFFFFFFA0</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>12</v>
       </c>
@@ -7134,19 +7396,23 @@
         <v>3720</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-41</v>
       </c>
-      <c r="I38" s="15">
-        <f t="shared" si="4"/>
+      <c r="I38" s="3">
+        <f t="shared" si="5"/>
         <v>-75</v>
       </c>
-      <c r="J38" s="30" t="str">
-        <f t="shared" si="5"/>
+      <c r="J38" s="47">
+        <f t="shared" si="6"/>
+        <v>-75</v>
+      </c>
+      <c r="K38" s="30" t="str">
+        <f t="shared" si="7"/>
         <v>FFFFFFFFB5</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>13</v>
       </c>
@@ -7164,19 +7430,23 @@
         <v>3740</v>
       </c>
       <c r="H39" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-30</v>
       </c>
-      <c r="I39" s="15">
-        <f t="shared" si="4"/>
+      <c r="I39" s="3">
+        <f t="shared" si="5"/>
         <v>-55</v>
       </c>
-      <c r="J39" s="30" t="str">
-        <f t="shared" si="5"/>
+      <c r="J39" s="47">
+        <f t="shared" si="6"/>
+        <v>-55</v>
+      </c>
+      <c r="K39" s="30" t="str">
+        <f t="shared" si="7"/>
         <v>FFFFFFFFC9</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>14</v>
       </c>
@@ -7194,19 +7464,23 @@
         <v>3770</v>
       </c>
       <c r="H40" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-20</v>
       </c>
-      <c r="I40" s="15">
-        <f t="shared" si="4"/>
+      <c r="I40" s="3">
+        <f t="shared" si="5"/>
         <v>-36</v>
       </c>
-      <c r="J40" s="30" t="str">
-        <f t="shared" si="5"/>
+      <c r="J40" s="47">
+        <f t="shared" si="6"/>
+        <v>-36</v>
+      </c>
+      <c r="K40" s="30" t="str">
+        <f t="shared" si="7"/>
         <v>FFFFFFFFDC</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>15</v>
       </c>
@@ -7224,19 +7498,23 @@
         <v>3825</v>
       </c>
       <c r="H41" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J41" s="30" t="str">
+      <c r="I41" s="3">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="30" t="str">
+        <f t="shared" si="7"/>
         <v>00</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>16</v>
       </c>
@@ -7254,19 +7532,23 @@
         <v>3925</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="I42" s="15">
-        <f t="shared" si="4"/>
+      <c r="I42" s="3">
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="J42" s="30" t="str">
-        <f t="shared" si="5"/>
+      <c r="J42" s="47">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="K42" s="30" t="str">
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>17</v>
       </c>
@@ -7284,19 +7566,23 @@
         <v>3980</v>
       </c>
       <c r="H43" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="I43" s="15">
-        <f t="shared" si="4"/>
+      <c r="I43" s="3">
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
-      <c r="J43" s="30" t="str">
-        <f t="shared" si="5"/>
+      <c r="J43" s="47">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="K43" s="30" t="str">
+        <f t="shared" si="7"/>
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>18</v>
       </c>
@@ -7314,19 +7600,23 @@
         <v>4040</v>
       </c>
       <c r="H44" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="I44" s="15">
-        <f t="shared" si="4"/>
+      <c r="I44" s="3">
+        <f t="shared" si="5"/>
         <v>91</v>
       </c>
-      <c r="J44" s="30" t="str">
-        <f t="shared" si="5"/>
+      <c r="J44" s="47">
+        <f t="shared" si="6"/>
+        <v>91</v>
+      </c>
+      <c r="K44" s="30" t="str">
+        <f t="shared" si="7"/>
         <v>5B</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>19</v>
       </c>
@@ -7344,19 +7634,23 @@
         <v>4150</v>
       </c>
       <c r="H45" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
-      <c r="I45" s="15">
-        <f t="shared" si="4"/>
+      <c r="I45" s="3">
+        <f t="shared" si="5"/>
         <v>113</v>
       </c>
-      <c r="J45" s="30" t="str">
-        <f t="shared" si="5"/>
+      <c r="J45" s="47">
+        <f t="shared" si="6"/>
+        <v>113</v>
+      </c>
+      <c r="K45" s="30" t="str">
+        <f t="shared" si="7"/>
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>20</v>
       </c>
@@ -7374,19 +7668,23 @@
         <v>4260</v>
       </c>
       <c r="H46" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
-      <c r="I46" s="15">
-        <f t="shared" si="4"/>
+      <c r="I46" s="3">
+        <f t="shared" si="5"/>
         <v>115</v>
       </c>
-      <c r="J46" s="30" t="str">
-        <f t="shared" si="5"/>
+      <c r="J46" s="47">
+        <f t="shared" si="6"/>
+        <v>115</v>
+      </c>
+      <c r="K46" s="30" t="str">
+        <f t="shared" si="7"/>
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="2" t="s">
         <v>21</v>
       </c>
@@ -7404,19 +7702,23 @@
         <v>4380</v>
       </c>
       <c r="H47" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
-      <c r="I47" s="16">
-        <f t="shared" si="4"/>
+      <c r="I47" s="4">
+        <f t="shared" si="5"/>
         <v>122</v>
       </c>
-      <c r="J47" s="31" t="str">
-        <f t="shared" si="5"/>
+      <c r="J47" s="48">
+        <f t="shared" si="6"/>
+        <v>122</v>
+      </c>
+      <c r="K47" s="31" t="str">
+        <f t="shared" si="7"/>
         <v>7A</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G48" s="8"/>
       <c r="H48" s="7"/>
       <c r="I48" s="8"/>
@@ -7424,10 +7726,11 @@
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
-      <c r="N48" s="7"/>
+      <c r="N48" s="8"/>
       <c r="O48" s="7"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P48" s="7"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G49" s="8"/>
       <c r="H49" s="7"/>
       <c r="I49" s="8"/>
@@ -7435,21 +7738,23 @@
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
-      <c r="N49" s="7"/>
+      <c r="N49" s="8"/>
       <c r="O49" s="7"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P49" s="7"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G52" s="43"/>
-      <c r="H52" s="43"/>
-      <c r="I52" s="43"/>
-      <c r="J52" s="43"/>
-    </row>
-    <row r="53" spans="1:15" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G52" s="52"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="52"/>
+      <c r="J52" s="52"/>
+      <c r="K52" s="43"/>
+    </row>
+    <row r="53" spans="1:16" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="22" t="s">
         <v>2</v>
       </c>
@@ -7457,50 +7762,52 @@
         <v>3</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E53" s="24" t="s">
         <v>23</v>
       </c>
       <c r="F53" s="25"/>
-      <c r="G53" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="H53" s="45"/>
+      <c r="G53" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="H53" s="57"/>
       <c r="I53" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J53" s="29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="49.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="K53" s="25"/>
+    </row>
+    <row r="54" spans="1:16" ht="49.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="21"/>
       <c r="C54" s="12"/>
       <c r="D54" s="28" t="s">
         <v>22</v>
       </c>
       <c r="E54" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H54" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I54" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J54" s="27" t="s">
         <v>24</v>
       </c>
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
-      <c r="M54" s="8"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M54" s="6"/>
+      <c r="N54" s="8"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>6</v>
       </c>
@@ -7526,11 +7833,11 @@
         <v>-70.400000000000006</v>
       </c>
       <c r="J55" s="38">
-        <f t="shared" ref="J55:J70" si="6">D55+I55</f>
+        <f t="shared" ref="J55:J70" si="8">D55+I55</f>
         <v>3229.6</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>7</v>
       </c>
@@ -7548,19 +7855,19 @@
         <v>-128</v>
       </c>
       <c r="H56" s="36" t="str">
-        <f t="shared" ref="H56:H70" si="7">DEC2HEX(G56, 2)</f>
+        <f t="shared" ref="H56:H70" si="9">DEC2HEX(G56, 2)</f>
         <v>FFFFFFFF80</v>
       </c>
       <c r="I56" s="1">
-        <f t="shared" ref="I56:I70" si="8">G56*0.55</f>
+        <f t="shared" ref="I56:I70" si="10">G56*0.55</f>
         <v>-70.400000000000006</v>
       </c>
       <c r="J56" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3470.6</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>8</v>
       </c>
@@ -7578,19 +7885,19 @@
         <v>-128</v>
       </c>
       <c r="H57" s="36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>FFFFFFFF80</v>
       </c>
       <c r="I57" s="1">
+        <f t="shared" si="10"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J57" s="38">
         <f t="shared" si="8"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J57" s="38">
-        <f t="shared" si="6"/>
         <v>3547.6</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>9</v>
       </c>
@@ -7608,19 +7915,19 @@
         <v>-128</v>
       </c>
       <c r="H58" s="36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>FFFFFFFF80</v>
       </c>
       <c r="I58" s="1">
+        <f t="shared" si="10"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J58" s="38">
         <f t="shared" si="8"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J58" s="38">
-        <f t="shared" si="6"/>
         <v>3587.6</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>10</v>
       </c>
@@ -7638,19 +7945,19 @@
         <v>-128</v>
       </c>
       <c r="H59" s="36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>FFFFFFFF80</v>
       </c>
       <c r="I59" s="1">
+        <f t="shared" si="10"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J59" s="38">
         <f t="shared" si="8"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J59" s="38">
-        <f t="shared" si="6"/>
         <v>3624.6</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>11</v>
       </c>
@@ -7668,19 +7975,19 @@
         <v>-128</v>
       </c>
       <c r="H60" s="36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>FFFFFFFF80</v>
       </c>
       <c r="I60" s="1">
+        <f t="shared" si="10"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J60" s="38">
         <f t="shared" si="8"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J60" s="38">
-        <f t="shared" si="6"/>
         <v>3650.6</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>12</v>
       </c>
@@ -7698,19 +8005,19 @@
         <v>-128</v>
       </c>
       <c r="H61" s="36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>FFFFFFFF80</v>
       </c>
       <c r="I61" s="1">
+        <f t="shared" si="10"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J61" s="38">
         <f t="shared" si="8"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J61" s="38">
-        <f t="shared" si="6"/>
         <v>3676.6</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>13</v>
       </c>
@@ -7728,19 +8035,19 @@
         <v>-128</v>
       </c>
       <c r="H62" s="36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>FFFFFFFF80</v>
       </c>
       <c r="I62" s="1">
+        <f t="shared" si="10"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J62" s="38">
         <f t="shared" si="8"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J62" s="38">
-        <f t="shared" si="6"/>
         <v>3690.6</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>14</v>
       </c>
@@ -7758,19 +8065,19 @@
         <v>-128</v>
       </c>
       <c r="H63" s="36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>FFFFFFFF80</v>
       </c>
       <c r="I63" s="1">
+        <f t="shared" si="10"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J63" s="38">
         <f t="shared" si="8"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J63" s="38">
-        <f t="shared" si="6"/>
         <v>3707.6</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>15</v>
       </c>
@@ -7788,19 +8095,19 @@
         <v>-128</v>
       </c>
       <c r="H64" s="36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>FFFFFFFF80</v>
       </c>
       <c r="I64" s="1">
+        <f t="shared" si="10"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J64" s="38">
         <f t="shared" si="8"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J64" s="38">
-        <f t="shared" si="6"/>
         <v>3731.6</v>
       </c>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>16</v>
       </c>
@@ -7818,19 +8125,19 @@
         <v>-128</v>
       </c>
       <c r="H65" s="36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>FFFFFFFF80</v>
       </c>
       <c r="I65" s="1">
+        <f t="shared" si="10"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J65" s="38">
         <f t="shared" si="8"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J65" s="38">
-        <f t="shared" si="6"/>
         <v>3792.6</v>
       </c>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>17</v>
       </c>
@@ -7848,19 +8155,19 @@
         <v>-128</v>
       </c>
       <c r="H66" s="36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>FFFFFFFF80</v>
       </c>
       <c r="I66" s="1">
+        <f t="shared" si="10"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J66" s="38">
         <f t="shared" si="8"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J66" s="38">
-        <f t="shared" si="6"/>
         <v>3828.6</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>18</v>
       </c>
@@ -7878,19 +8185,19 @@
         <v>-128</v>
       </c>
       <c r="H67" s="36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>FFFFFFFF80</v>
       </c>
       <c r="I67" s="1">
+        <f t="shared" si="10"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J67" s="38">
         <f t="shared" si="8"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J67" s="38">
-        <f t="shared" si="6"/>
         <v>3858.6</v>
       </c>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>19</v>
       </c>
@@ -7908,19 +8215,19 @@
         <v>-128</v>
       </c>
       <c r="H68" s="36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>FFFFFFFF80</v>
       </c>
       <c r="I68" s="1">
+        <f t="shared" si="10"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J68" s="38">
         <f t="shared" si="8"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J68" s="38">
-        <f t="shared" si="6"/>
         <v>3920.6</v>
       </c>
     </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>20</v>
       </c>
@@ -7938,19 +8245,19 @@
         <v>-128</v>
       </c>
       <c r="H69" s="36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>FFFFFFFF80</v>
       </c>
       <c r="I69" s="1">
+        <f t="shared" si="10"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J69" s="38">
         <f t="shared" si="8"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J69" s="38">
-        <f t="shared" si="6"/>
         <v>4005.6</v>
       </c>
     </row>
-    <row r="70" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="2" t="s">
         <v>21</v>
       </c>
@@ -7968,19 +8275,19 @@
         <v>-128</v>
       </c>
       <c r="H70" s="37" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>FFFFFFFF80</v>
       </c>
       <c r="I70" s="2">
+        <f t="shared" si="10"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J70" s="39">
         <f t="shared" si="8"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J70" s="39">
-        <f t="shared" si="6"/>
         <v>4105.6000000000004</v>
       </c>
     </row>
-    <row r="71" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G71" s="8"/>
       <c r="H71" s="7"/>
       <c r="I71" s="8"/>
@@ -7988,36 +8295,39 @@
       <c r="K71" s="8"/>
       <c r="L71" s="8"/>
       <c r="M71" s="8"/>
-      <c r="N71" s="7"/>
+      <c r="N71" s="8"/>
       <c r="O71" s="7"/>
-    </row>
-    <row r="72" spans="2:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G72" s="46" t="s">
+      <c r="P71" s="7"/>
+    </row>
+    <row r="72" spans="2:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G72" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="H72" s="57"/>
+      <c r="I72" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="J72" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="K72" s="25"/>
+    </row>
+    <row r="73" spans="2:16" ht="49.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G73" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H73" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H72" s="45"/>
-      <c r="I72" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="J72" s="29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15" ht="49.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G73" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H73" s="14" t="s">
-        <v>36</v>
-      </c>
       <c r="I73" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J73" s="27" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K73" s="6"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G74" s="15">
         <v>127</v>
       </c>
@@ -8034,362 +8344,335 @@
         <v>3369.85</v>
       </c>
     </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G75" s="15">
         <v>127</v>
       </c>
       <c r="H75" s="36" t="str">
-        <f t="shared" ref="H75:H89" si="9">DEC2HEX(G75, 2)</f>
+        <f t="shared" ref="H75:H89" si="11">DEC2HEX(G75, 2)</f>
         <v>7F</v>
       </c>
       <c r="I75" s="1">
-        <f t="shared" ref="I75:I89" si="10">G75*0.55</f>
+        <f t="shared" ref="I75:I89" si="12">G75*0.55</f>
         <v>69.850000000000009</v>
       </c>
       <c r="J75" s="38">
-        <f t="shared" ref="J75:J89" si="11">D56+I75</f>
+        <f t="shared" ref="J75:J89" si="13">D56+I75</f>
         <v>3610.85</v>
       </c>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G76" s="15">
         <v>127</v>
       </c>
       <c r="H76" s="36" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7F</v>
       </c>
       <c r="I76" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>69.850000000000009</v>
       </c>
       <c r="J76" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3687.85</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G77" s="15">
         <v>127</v>
       </c>
       <c r="H77" s="36" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7F</v>
       </c>
       <c r="I77" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>69.850000000000009</v>
       </c>
       <c r="J77" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3727.85</v>
       </c>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G78" s="15">
         <v>127</v>
       </c>
       <c r="H78" s="36" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7F</v>
       </c>
       <c r="I78" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>69.850000000000009</v>
       </c>
       <c r="J78" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3764.85</v>
       </c>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G79" s="15">
         <v>127</v>
       </c>
       <c r="H79" s="36" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7F</v>
       </c>
       <c r="I79" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>69.850000000000009</v>
       </c>
       <c r="J79" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3790.85</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G80" s="15">
         <v>127</v>
       </c>
       <c r="H80" s="36" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7F</v>
       </c>
       <c r="I80" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>69.850000000000009</v>
       </c>
       <c r="J80" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3816.85</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G81" s="15">
         <v>127</v>
       </c>
       <c r="H81" s="36" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7F</v>
       </c>
       <c r="I81" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>69.850000000000009</v>
       </c>
       <c r="J81" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3830.85</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G82" s="15">
         <v>127</v>
       </c>
       <c r="H82" s="36" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7F</v>
       </c>
       <c r="I82" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>69.850000000000009</v>
       </c>
       <c r="J82" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3847.85</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G83" s="15">
         <v>127</v>
       </c>
       <c r="H83" s="36" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7F</v>
       </c>
       <c r="I83" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>69.850000000000009</v>
       </c>
       <c r="J83" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3871.85</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G84" s="15">
         <v>127</v>
       </c>
       <c r="H84" s="36" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7F</v>
       </c>
       <c r="I84" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>69.850000000000009</v>
       </c>
       <c r="J84" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3932.85</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G85" s="15">
         <v>127</v>
       </c>
       <c r="H85" s="36" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7F</v>
       </c>
       <c r="I85" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>69.850000000000009</v>
       </c>
       <c r="J85" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3968.85</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G86" s="15">
         <v>127</v>
       </c>
       <c r="H86" s="36" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7F</v>
       </c>
       <c r="I86" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>69.850000000000009</v>
       </c>
       <c r="J86" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3998.85</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G87" s="15">
         <v>127</v>
       </c>
       <c r="H87" s="36" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7F</v>
       </c>
       <c r="I87" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>69.850000000000009</v>
       </c>
       <c r="J87" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4060.85</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G88" s="15">
         <v>127</v>
       </c>
       <c r="H88" s="36" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7F</v>
       </c>
       <c r="I88" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>69.850000000000009</v>
       </c>
       <c r="J88" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4145.8500000000004</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G89" s="16">
         <v>127</v>
       </c>
       <c r="H89" s="37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7F</v>
       </c>
       <c r="I89" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>69.850000000000009</v>
       </c>
       <c r="J89" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4245.8500000000004</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G92" s="43"/>
-      <c r="H92" s="43"/>
-      <c r="I92" s="43"/>
-      <c r="J92" s="43"/>
-    </row>
-    <row r="93" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="22" t="s">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G93" s="52"/>
+      <c r="H93" s="52"/>
+      <c r="I93" s="52"/>
+      <c r="J93" s="52"/>
+      <c r="K93" s="43"/>
+    </row>
+    <row r="94" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="C94" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D93" s="11" t="s">
+      <c r="D94" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E94" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F94" s="25"/>
+      <c r="G94" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="H94" s="57"/>
+      <c r="I94" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="J94" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="K94" s="25"/>
+    </row>
+    <row r="95" spans="1:14" ht="49.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="21"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E93" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="F93" s="25"/>
-      <c r="G93" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="H93" s="45"/>
-      <c r="I93" s="29" t="s">
+      <c r="E95" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="J93" s="29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" ht="49.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="21"/>
-      <c r="C94" s="12"/>
-      <c r="D94" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E94" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="F94" s="6"/>
-      <c r="G94" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H94" s="14" t="s">
+      <c r="F95" s="6"/>
+      <c r="G95" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="I94" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="J94" s="27" t="s">
+      <c r="H95" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I95" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="J95" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="K94" s="6"/>
-      <c r="L94" s="6"/>
-      <c r="M94" s="8"/>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B95" s="1" t="s">
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="6"/>
+      <c r="N95" s="8"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B96" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C96" s="3">
         <v>0</v>
       </c>
-      <c r="D95" s="18">
+      <c r="D96" s="18">
         <v>3300</v>
-      </c>
-      <c r="E95" s="36">
-        <v>0</v>
-      </c>
-      <c r="F95" s="8"/>
-      <c r="G95" s="15">
-        <v>-128</v>
-      </c>
-      <c r="H95" s="36" t="str">
-        <f>DEC2HEX(G95, 2)</f>
-        <v>FFFFFFFF80</v>
-      </c>
-      <c r="I95" s="1">
-        <f>G95*0.55</f>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J95" s="38">
-        <f t="shared" ref="J95:J110" si="12">D95+I95</f>
-        <v>3229.6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B96" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C96" s="3">
-        <v>3</v>
-      </c>
-      <c r="D96" s="19">
-        <v>3571</v>
       </c>
       <c r="E96" s="36">
         <v>0</v>
@@ -8399,27 +8682,27 @@
         <v>-128</v>
       </c>
       <c r="H96" s="36" t="str">
-        <f t="shared" ref="H96:H110" si="13">DEC2HEX(G96, 2)</f>
+        <f>DEC2HEX(G96, 2)</f>
         <v>FFFFFFFF80</v>
       </c>
       <c r="I96" s="1">
-        <f t="shared" ref="I96:I110" si="14">G96*0.55</f>
+        <f>G96*0.55</f>
         <v>-70.400000000000006</v>
       </c>
       <c r="J96" s="38">
-        <f t="shared" si="12"/>
-        <v>3500.6</v>
-      </c>
-    </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J96:J111" si="14">D96+I96</f>
+        <v>3229.6</v>
+      </c>
+    </row>
+    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C97" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D97" s="19">
-        <v>3651</v>
+        <v>3571</v>
       </c>
       <c r="E97" s="36">
         <v>0</v>
@@ -8429,27 +8712,27 @@
         <v>-128</v>
       </c>
       <c r="H97" s="36" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="H97:H111" si="15">DEC2HEX(G97, 2)</f>
         <v>FFFFFFFF80</v>
       </c>
       <c r="I97" s="1">
+        <f t="shared" ref="I97:I111" si="16">G97*0.55</f>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J97" s="38">
         <f t="shared" si="14"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J97" s="38">
-        <f t="shared" si="12"/>
-        <v>3580.6</v>
-      </c>
-    </row>
-    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
+        <v>3500.6</v>
+      </c>
+    </row>
+    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C98" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D98" s="19">
-        <v>3675</v>
+        <v>3651</v>
       </c>
       <c r="E98" s="36">
         <v>0</v>
@@ -8459,27 +8742,27 @@
         <v>-128</v>
       </c>
       <c r="H98" s="36" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>FFFFFFFF80</v>
       </c>
       <c r="I98" s="1">
+        <f t="shared" si="16"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J98" s="38">
         <f t="shared" si="14"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J98" s="38">
-        <f t="shared" si="12"/>
-        <v>3604.6</v>
-      </c>
-    </row>
-    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
+        <v>3580.6</v>
+      </c>
+    </row>
+    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="3">
         <v>10</v>
       </c>
-      <c r="C99" s="3">
-        <v>15</v>
-      </c>
       <c r="D99" s="19">
-        <v>3710</v>
+        <v>3675</v>
       </c>
       <c r="E99" s="36">
         <v>0</v>
@@ -8489,27 +8772,27 @@
         <v>-128</v>
       </c>
       <c r="H99" s="36" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>FFFFFFFF80</v>
       </c>
       <c r="I99" s="1">
+        <f t="shared" si="16"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J99" s="38">
         <f t="shared" si="14"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J99" s="38">
-        <f t="shared" si="12"/>
-        <v>3639.6</v>
-      </c>
-    </row>
-    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
+        <v>3604.6</v>
+      </c>
+    </row>
+    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C100" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D100" s="19">
-        <v>3743</v>
+        <v>3710</v>
       </c>
       <c r="E100" s="36">
         <v>0</v>
@@ -8519,27 +8802,27 @@
         <v>-128</v>
       </c>
       <c r="H100" s="36" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>FFFFFFFF80</v>
       </c>
       <c r="I100" s="1">
+        <f t="shared" si="16"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J100" s="38">
         <f t="shared" si="14"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J100" s="38">
-        <f t="shared" si="12"/>
-        <v>3672.6</v>
-      </c>
-    </row>
-    <row r="101" spans="2:15" x14ac:dyDescent="0.25">
+        <v>3639.6</v>
+      </c>
+    </row>
+    <row r="101" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C101" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D101" s="19">
-        <v>3761</v>
+        <v>3743</v>
       </c>
       <c r="E101" s="36">
         <v>0</v>
@@ -8549,27 +8832,27 @@
         <v>-128</v>
       </c>
       <c r="H101" s="36" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>FFFFFFFF80</v>
       </c>
       <c r="I101" s="1">
+        <f t="shared" si="16"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J101" s="38">
         <f t="shared" si="14"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J101" s="38">
-        <f t="shared" si="12"/>
-        <v>3690.6</v>
-      </c>
-    </row>
-    <row r="102" spans="2:15" x14ac:dyDescent="0.25">
+        <v>3672.6</v>
+      </c>
+    </row>
+    <row r="102" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C102" s="3">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D102" s="19">
-        <v>3770</v>
+        <v>3761</v>
       </c>
       <c r="E102" s="36">
         <v>0</v>
@@ -8579,27 +8862,27 @@
         <v>-128</v>
       </c>
       <c r="H102" s="36" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>FFFFFFFF80</v>
       </c>
       <c r="I102" s="1">
+        <f t="shared" si="16"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J102" s="38">
         <f t="shared" si="14"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J102" s="38">
-        <f t="shared" si="12"/>
-        <v>3699.6</v>
-      </c>
-    </row>
-    <row r="103" spans="2:15" x14ac:dyDescent="0.25">
+        <v>3690.6</v>
+      </c>
+    </row>
+    <row r="103" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C103" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D103" s="19">
-        <v>3790</v>
+        <v>3770</v>
       </c>
       <c r="E103" s="36">
         <v>0</v>
@@ -8609,27 +8892,27 @@
         <v>-128</v>
       </c>
       <c r="H103" s="36" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>FFFFFFFF80</v>
       </c>
       <c r="I103" s="1">
+        <f t="shared" si="16"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J103" s="38">
         <f t="shared" si="14"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J103" s="38">
-        <f t="shared" si="12"/>
-        <v>3719.6</v>
-      </c>
-    </row>
-    <row r="104" spans="2:15" x14ac:dyDescent="0.25">
+        <v>3699.6</v>
+      </c>
+    </row>
+    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C104" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D104" s="19">
-        <v>3825</v>
+        <v>3790</v>
       </c>
       <c r="E104" s="36">
         <v>0</v>
@@ -8639,27 +8922,27 @@
         <v>-128</v>
       </c>
       <c r="H104" s="36" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>FFFFFFFF80</v>
       </c>
       <c r="I104" s="1">
+        <f t="shared" si="16"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J104" s="38">
         <f t="shared" si="14"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J104" s="38">
-        <f t="shared" si="12"/>
-        <v>3754.6</v>
-      </c>
-    </row>
-    <row r="105" spans="2:15" x14ac:dyDescent="0.25">
+        <v>3719.6</v>
+      </c>
+    </row>
+    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C105" s="3">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D105" s="19">
-        <v>3914</v>
+        <v>3825</v>
       </c>
       <c r="E105" s="36">
         <v>0</v>
@@ -8669,27 +8952,27 @@
         <v>-128</v>
       </c>
       <c r="H105" s="36" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>FFFFFFFF80</v>
       </c>
       <c r="I105" s="1">
+        <f t="shared" si="16"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J105" s="38">
         <f t="shared" si="14"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J105" s="38">
-        <f t="shared" si="12"/>
-        <v>3843.6</v>
-      </c>
-    </row>
-    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
+        <v>3754.6</v>
+      </c>
+    </row>
+    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C106" s="3">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D106" s="19">
-        <v>3953</v>
+        <v>3914</v>
       </c>
       <c r="E106" s="36">
         <v>0</v>
@@ -8699,27 +8982,27 @@
         <v>-128</v>
       </c>
       <c r="H106" s="36" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>FFFFFFFF80</v>
       </c>
       <c r="I106" s="1">
+        <f t="shared" si="16"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J106" s="38">
         <f t="shared" si="14"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J106" s="38">
-        <f t="shared" si="12"/>
-        <v>3882.6</v>
-      </c>
-    </row>
-    <row r="107" spans="2:15" x14ac:dyDescent="0.25">
+        <v>3843.6</v>
+      </c>
+    </row>
+    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C107" s="3">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D107" s="19">
-        <v>3990</v>
+        <v>3953</v>
       </c>
       <c r="E107" s="36">
         <v>0</v>
@@ -8729,27 +9012,27 @@
         <v>-128</v>
       </c>
       <c r="H107" s="36" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>FFFFFFFF80</v>
       </c>
       <c r="I107" s="1">
+        <f t="shared" si="16"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J107" s="38">
         <f t="shared" si="14"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J107" s="38">
-        <f t="shared" si="12"/>
-        <v>3919.6</v>
-      </c>
-    </row>
-    <row r="108" spans="2:15" x14ac:dyDescent="0.25">
+        <v>3882.6</v>
+      </c>
+    </row>
+    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C108" s="3">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D108" s="19">
-        <v>4088</v>
+        <v>3990</v>
       </c>
       <c r="E108" s="36">
         <v>0</v>
@@ -8759,27 +9042,27 @@
         <v>-128</v>
       </c>
       <c r="H108" s="36" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>FFFFFFFF80</v>
       </c>
       <c r="I108" s="1">
+        <f t="shared" si="16"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J108" s="38">
         <f t="shared" si="14"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J108" s="38">
-        <f t="shared" si="12"/>
-        <v>4017.6</v>
-      </c>
-    </row>
-    <row r="109" spans="2:15" x14ac:dyDescent="0.25">
+        <v>3919.6</v>
+      </c>
+    </row>
+    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C109" s="3">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D109" s="19">
-        <v>4197</v>
+        <v>4088</v>
       </c>
       <c r="E109" s="36">
         <v>0</v>
@@ -8789,375 +9072,485 @@
         <v>-128</v>
       </c>
       <c r="H109" s="36" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>FFFFFFFF80</v>
       </c>
       <c r="I109" s="1">
+        <f t="shared" si="16"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J109" s="38">
         <f t="shared" si="14"/>
+        <v>4017.6</v>
+      </c>
+    </row>
+    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B110" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C110" s="3">
+        <v>90</v>
+      </c>
+      <c r="D110" s="19">
+        <v>4197</v>
+      </c>
+      <c r="E110" s="36">
+        <v>0</v>
+      </c>
+      <c r="F110" s="8"/>
+      <c r="G110" s="15">
+        <v>-128</v>
+      </c>
+      <c r="H110" s="36" t="str">
+        <f t="shared" si="15"/>
+        <v>FFFFFFFF80</v>
+      </c>
+      <c r="I110" s="1">
+        <f t="shared" si="16"/>
         <v>-70.400000000000006</v>
       </c>
-      <c r="J109" s="38">
-        <f t="shared" si="12"/>
+      <c r="J110" s="38">
+        <f t="shared" si="14"/>
         <v>4126.6000000000004</v>
       </c>
     </row>
-    <row r="110" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="2" t="s">
+    <row r="111" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C110" s="4">
+      <c r="C111" s="4">
         <v>100</v>
       </c>
-      <c r="D110" s="20">
+      <c r="D111" s="20">
         <v>4313</v>
       </c>
-      <c r="E110" s="37">
+      <c r="E111" s="37">
         <v>0</v>
       </c>
-      <c r="F110" s="8"/>
-      <c r="G110" s="16">
+      <c r="F111" s="8"/>
+      <c r="G111" s="16">
         <v>-128</v>
       </c>
-      <c r="H110" s="37" t="str">
-        <f t="shared" si="13"/>
+      <c r="H111" s="37" t="str">
+        <f t="shared" si="15"/>
         <v>FFFFFFFF80</v>
       </c>
-      <c r="I110" s="2">
+      <c r="I111" s="2">
+        <f t="shared" si="16"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J111" s="39">
         <f t="shared" si="14"/>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J110" s="39">
-        <f t="shared" si="12"/>
         <v>4242.6000000000004</v>
       </c>
     </row>
-    <row r="111" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G111" s="8"/>
-      <c r="H111" s="7"/>
-      <c r="I111" s="8"/>
-      <c r="J111" s="8"/>
-      <c r="K111" s="8"/>
-      <c r="L111" s="8"/>
-      <c r="M111" s="8"/>
-      <c r="N111" s="7"/>
-      <c r="O111" s="7"/>
-    </row>
-    <row r="112" spans="2:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G112" s="46" t="s">
+    <row r="112" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G112" s="8"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="8"/>
+      <c r="J112" s="8"/>
+      <c r="K112" s="8"/>
+      <c r="L112" s="8"/>
+      <c r="M112" s="8"/>
+      <c r="N112" s="8"/>
+      <c r="O112" s="7"/>
+      <c r="P112" s="7"/>
+    </row>
+    <row r="113" spans="7:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G113" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="H113" s="57"/>
+      <c r="I113" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="J113" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="K113" s="25"/>
+    </row>
+    <row r="114" spans="7:11" ht="49.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G114" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H114" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H112" s="45"/>
-      <c r="I112" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="J112" s="29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="113" spans="7:10" ht="49.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G113" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H113" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I113" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="J113" s="27" t="s">
+      <c r="I114" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="J114" s="27" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="114" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G114" s="15">
-        <v>127</v>
-      </c>
-      <c r="H114" s="36" t="str">
-        <f>DEC2HEX(G114, 2)</f>
-        <v>7F</v>
-      </c>
-      <c r="I114" s="1">
-        <f>G114*0.55</f>
-        <v>69.850000000000009</v>
-      </c>
-      <c r="J114" s="38">
-        <f>D95+I114</f>
-        <v>3369.85</v>
-      </c>
-    </row>
-    <row r="115" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="K114" s="6"/>
+    </row>
+    <row r="115" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G115" s="15">
         <v>127</v>
       </c>
       <c r="H115" s="36" t="str">
-        <f t="shared" ref="H115:H129" si="15">DEC2HEX(G115, 2)</f>
+        <f>DEC2HEX(G115, 2)</f>
         <v>7F</v>
       </c>
       <c r="I115" s="1">
-        <f t="shared" ref="I115:I129" si="16">G115*0.55</f>
+        <f>G115*0.55</f>
         <v>69.850000000000009</v>
       </c>
       <c r="J115" s="38">
-        <f t="shared" ref="J115:J129" si="17">D96+I115</f>
-        <v>3640.85</v>
-      </c>
-    </row>
-    <row r="116" spans="7:10" x14ac:dyDescent="0.25">
+        <f>D96+I115</f>
+        <v>3369.85</v>
+      </c>
+    </row>
+    <row r="116" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G116" s="15">
         <v>127</v>
       </c>
       <c r="H116" s="36" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="H116:H130" si="17">DEC2HEX(G116, 2)</f>
         <v>7F</v>
       </c>
       <c r="I116" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="I116:I130" si="18">G116*0.55</f>
         <v>69.850000000000009</v>
       </c>
       <c r="J116" s="38">
-        <f t="shared" si="17"/>
-        <v>3720.85</v>
-      </c>
-    </row>
-    <row r="117" spans="7:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J116:J130" si="19">D97+I116</f>
+        <v>3640.85</v>
+      </c>
+    </row>
+    <row r="117" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G117" s="15">
         <v>127</v>
       </c>
       <c r="H117" s="36" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7F</v>
       </c>
       <c r="I117" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>69.850000000000009</v>
       </c>
       <c r="J117" s="38">
-        <f t="shared" si="17"/>
-        <v>3744.85</v>
-      </c>
-    </row>
-    <row r="118" spans="7:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="19"/>
+        <v>3720.85</v>
+      </c>
+    </row>
+    <row r="118" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G118" s="15">
         <v>127</v>
       </c>
       <c r="H118" s="36" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7F</v>
       </c>
       <c r="I118" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>69.850000000000009</v>
       </c>
       <c r="J118" s="38">
-        <f t="shared" si="17"/>
-        <v>3779.85</v>
-      </c>
-    </row>
-    <row r="119" spans="7:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="19"/>
+        <v>3744.85</v>
+      </c>
+    </row>
+    <row r="119" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G119" s="15">
         <v>127</v>
       </c>
       <c r="H119" s="36" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7F</v>
       </c>
       <c r="I119" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>69.850000000000009</v>
       </c>
       <c r="J119" s="38">
-        <f t="shared" si="17"/>
-        <v>3812.85</v>
-      </c>
-    </row>
-    <row r="120" spans="7:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="19"/>
+        <v>3779.85</v>
+      </c>
+    </row>
+    <row r="120" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G120" s="15">
         <v>127</v>
       </c>
       <c r="H120" s="36" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7F</v>
       </c>
       <c r="I120" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>69.850000000000009</v>
       </c>
       <c r="J120" s="38">
-        <f t="shared" si="17"/>
-        <v>3830.85</v>
-      </c>
-    </row>
-    <row r="121" spans="7:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="19"/>
+        <v>3812.85</v>
+      </c>
+    </row>
+    <row r="121" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G121" s="15">
         <v>127</v>
       </c>
       <c r="H121" s="36" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7F</v>
       </c>
       <c r="I121" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>69.850000000000009</v>
       </c>
       <c r="J121" s="38">
-        <f t="shared" si="17"/>
-        <v>3839.85</v>
-      </c>
-    </row>
-    <row r="122" spans="7:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="19"/>
+        <v>3830.85</v>
+      </c>
+    </row>
+    <row r="122" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G122" s="15">
         <v>127</v>
       </c>
       <c r="H122" s="36" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7F</v>
       </c>
       <c r="I122" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>69.850000000000009</v>
       </c>
       <c r="J122" s="38">
-        <f t="shared" si="17"/>
-        <v>3859.85</v>
-      </c>
-    </row>
-    <row r="123" spans="7:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="19"/>
+        <v>3839.85</v>
+      </c>
+    </row>
+    <row r="123" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G123" s="15">
         <v>127</v>
       </c>
       <c r="H123" s="36" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7F</v>
       </c>
       <c r="I123" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>69.850000000000009</v>
       </c>
       <c r="J123" s="38">
-        <f t="shared" si="17"/>
-        <v>3894.85</v>
-      </c>
-    </row>
-    <row r="124" spans="7:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="19"/>
+        <v>3859.85</v>
+      </c>
+    </row>
+    <row r="124" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G124" s="15">
         <v>127</v>
       </c>
       <c r="H124" s="36" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7F</v>
       </c>
       <c r="I124" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>69.850000000000009</v>
       </c>
       <c r="J124" s="38">
-        <f t="shared" si="17"/>
-        <v>3983.85</v>
-      </c>
-    </row>
-    <row r="125" spans="7:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="19"/>
+        <v>3894.85</v>
+      </c>
+    </row>
+    <row r="125" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G125" s="15">
         <v>127</v>
       </c>
       <c r="H125" s="36" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7F</v>
       </c>
       <c r="I125" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>69.850000000000009</v>
       </c>
       <c r="J125" s="38">
-        <f t="shared" si="17"/>
-        <v>4022.85</v>
-      </c>
-    </row>
-    <row r="126" spans="7:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="19"/>
+        <v>3983.85</v>
+      </c>
+    </row>
+    <row r="126" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G126" s="15">
         <v>127</v>
       </c>
       <c r="H126" s="36" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7F</v>
       </c>
       <c r="I126" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>69.850000000000009</v>
       </c>
       <c r="J126" s="38">
-        <f t="shared" si="17"/>
-        <v>4059.85</v>
-      </c>
-    </row>
-    <row r="127" spans="7:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="19"/>
+        <v>4022.85</v>
+      </c>
+    </row>
+    <row r="127" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G127" s="15">
         <v>127</v>
       </c>
       <c r="H127" s="36" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7F</v>
       </c>
       <c r="I127" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>69.850000000000009</v>
       </c>
       <c r="J127" s="38">
-        <f t="shared" si="17"/>
-        <v>4157.8500000000004</v>
-      </c>
-    </row>
-    <row r="128" spans="7:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="19"/>
+        <v>4059.85</v>
+      </c>
+    </row>
+    <row r="128" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G128" s="15">
         <v>127</v>
       </c>
       <c r="H128" s="36" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7F</v>
       </c>
       <c r="I128" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>69.850000000000009</v>
       </c>
       <c r="J128" s="38">
+        <f t="shared" si="19"/>
+        <v>4157.8500000000004</v>
+      </c>
+    </row>
+    <row r="129" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G129" s="15">
+        <v>127</v>
+      </c>
+      <c r="H129" s="36" t="str">
         <f t="shared" si="17"/>
+        <v>7F</v>
+      </c>
+      <c r="I129" s="1">
+        <f t="shared" si="18"/>
+        <v>69.850000000000009</v>
+      </c>
+      <c r="J129" s="38">
+        <f t="shared" si="19"/>
         <v>4266.8500000000004</v>
       </c>
     </row>
-    <row r="129" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G129" s="16">
+    <row r="130" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G130" s="16">
         <v>127</v>
       </c>
-      <c r="H129" s="37" t="str">
-        <f t="shared" si="15"/>
+      <c r="H130" s="37" t="str">
+        <f t="shared" si="17"/>
         <v>7F</v>
       </c>
-      <c r="I129" s="2">
-        <f t="shared" si="16"/>
+      <c r="I130" s="2">
+        <f t="shared" si="18"/>
         <v>69.850000000000009</v>
       </c>
-      <c r="J129" s="39">
-        <f t="shared" si="17"/>
+      <c r="J130" s="39">
+        <f t="shared" si="19"/>
         <v>4382.8500000000004</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="8">
     <mergeCell ref="G53:H53"/>
     <mergeCell ref="G72:H72"/>
-    <mergeCell ref="G92:J92"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G93:J93"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G113:H113"/>
     <mergeCell ref="G52:J52"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I30:K30"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="269" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
+  <pageSetup paperSize="66" orientation="landscape" horizontalDpi="300" r:id="rId1"/>
+  <rowBreaks count="2" manualBreakCount="2">
     <brk id="49" max="16383" man="1"/>
+    <brk id="90" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="DCFIdentifier" r:id="rId1"/>
+  </customProperties>
+</worksheet>
 </file>
--- a/Docs/Config/STC3115 OCV curve - default register values.xlsx
+++ b/Docs/Config/STC3115 OCV curve - default register values.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="61">
   <si>
     <t>Hex (0.55 mV)</t>
   </si>
@@ -96,9 +96,6 @@
     <t>[mV]</t>
   </si>
   <si>
-    <t>How to fill the STC3115 registers depending on battery characteristics</t>
-  </si>
-  <si>
     <t>(relative to reference curve)</t>
   </si>
   <si>
@@ -110,28 +107,12 @@
 register value (mV)</t>
   </si>
   <si>
-    <t>register REG_OCVTAB value</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Default 
-OCV curve 
-voltage (mV)</t>
-  </si>
-  <si>
     <t>STC3115IJT
 (4.35V max battery)</t>
   </si>
   <si>
     <t>Battery specific 
 OCV curve</t>
-  </si>
-  <si>
-    <t>Battery  
-OCV curve</t>
-  </si>
-  <si>
-    <t>register 
-REG_OCVTAB value</t>
   </si>
   <si>
     <t>Offset MAX (8bit)
@@ -144,9 +125,6 @@
   <si>
     <t>Offset MIN (8bit)
 Dec (0.55 mV)</t>
-  </si>
-  <si>
-    <t>• Example for the min/max battery voltage:</t>
   </si>
   <si>
     <t>Offset MAX (8bit)
@@ -201,12 +179,48 @@
   <si>
     <t xml:space="preserve">STC3115 OCV registers lookup table: </t>
   </si>
+  <si>
+    <t>• The min/max OCV battery voltage for STC3115AIJT:</t>
+  </si>
+  <si>
+    <t>AIJT &amp; AIQT = 4.20 V max battery option (3.7 V typ)</t>
+  </si>
+  <si>
+    <t>• The min/max OCV battery voltage for STC3115IJT:</t>
+  </si>
+  <si>
+    <t>Battery OCV curve examples</t>
+  </si>
+  <si>
+    <t>register 
+REG_OCVTAB value [8bit]</t>
+  </si>
+  <si>
+    <t>register REG_OCVTAB value [8bit]</t>
+  </si>
+  <si>
+    <t>Default hardcoded OCV curve voltage (mV)</t>
+  </si>
+  <si>
+    <t>IJT &amp; IQT = 4.35 V max battery option (3.8 V typ)</t>
+  </si>
+  <si>
+    <t>MIN Battery  
+OCV curve</t>
+  </si>
+  <si>
+    <t>MAX Battery  
+OCV curve</t>
+  </si>
+  <si>
+    <t>How to fill the STC3115 registers depending on battery characteristics ?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,6 +256,21 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -508,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -633,6 +662,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -651,7 +686,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1053,11 +1087,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199012840"/>
-        <c:axId val="199013232"/>
+        <c:axId val="130585864"/>
+        <c:axId val="198987272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199012840"/>
+        <c:axId val="130585864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1171,12 +1205,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199013232"/>
+        <c:crossAx val="198987272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199013232"/>
+        <c:axId val="198987272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4400"/>
@@ -1295,7 +1329,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199012840"/>
+        <c:crossAx val="130585864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1752,11 +1786,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199014016"/>
-        <c:axId val="199014408"/>
+        <c:axId val="198920208"/>
+        <c:axId val="198920592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199014016"/>
+        <c:axId val="198920208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1870,12 +1904,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199014408"/>
+        <c:crossAx val="198920592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199014408"/>
+        <c:axId val="198920592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4400"/>
@@ -1994,7 +2028,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199014016"/>
+        <c:crossAx val="198920208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2191,7 +2225,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$55:$C$70</c:f>
+              <c:f>Sheet1!$C$56:$C$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2248,7 +2282,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$55:$D$70</c:f>
+              <c:f>Sheet1!$D$56:$D$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2337,7 +2371,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$55:$C$70</c:f>
+              <c:f>Sheet1!$C$56:$C$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2394,7 +2428,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$55:$J$70</c:f>
+              <c:f>Sheet1!$J$56:$J$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2483,7 +2517,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$55:$C$70</c:f>
+              <c:f>Sheet1!$C$56:$C$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2540,7 +2574,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$74:$J$89</c:f>
+              <c:f>Sheet1!$J$75:$J$90</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2605,11 +2639,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199015192"/>
-        <c:axId val="199015584"/>
+        <c:axId val="197667272"/>
+        <c:axId val="197667664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199015192"/>
+        <c:axId val="197667272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2723,12 +2757,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199015584"/>
+        <c:crossAx val="197667664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199015584"/>
+        <c:axId val="197667664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4400"/>
@@ -2847,7 +2881,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199015192"/>
+        <c:crossAx val="197667272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3044,7 +3078,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$96:$C$111</c:f>
+              <c:f>Sheet1!$C$98:$C$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3101,7 +3135,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$96:$D$111</c:f>
+              <c:f>Sheet1!$D$98:$D$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3190,7 +3224,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$96:$C$111</c:f>
+              <c:f>Sheet1!$C$98:$C$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3247,7 +3281,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$96:$J$111</c:f>
+              <c:f>Sheet1!$J$98:$J$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3336,7 +3370,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$96:$C$111</c:f>
+              <c:f>Sheet1!$C$98:$C$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3393,7 +3427,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$115:$J$130</c:f>
+              <c:f>Sheet1!$J$117:$J$132</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3458,11 +3492,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199016368"/>
-        <c:axId val="302756560"/>
+        <c:axId val="197668448"/>
+        <c:axId val="197668840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199016368"/>
+        <c:axId val="197668448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3576,12 +3610,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302756560"/>
+        <c:crossAx val="197668840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="302756560"/>
+        <c:axId val="197668840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4400"/>
@@ -3700,7 +3734,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199016368"/>
+        <c:crossAx val="197668448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6073,13 +6107,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>461963</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6105,13 +6139,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>461963</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6423,14 +6457,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R130"/>
+  <dimension ref="A1:R132"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="14.140625" customWidth="1"/>
     <col min="6" max="6" width="6" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" customWidth="1"/>
@@ -6447,19 +6483,21 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2" s="23" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" s="23"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="9"/>
+      <c r="A4" s="55" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -6468,12 +6506,12 @@
       <c r="B5" s="9"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G6" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
+      <c r="G6" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
       <c r="K6" s="44"/>
     </row>
     <row r="7" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6483,24 +6521,24 @@
       <c r="C7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>30</v>
+      <c r="D7" s="52" t="s">
+        <v>56</v>
       </c>
       <c r="E7" s="24" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="54"/>
-      <c r="K7" s="55"/>
+        <v>26</v>
+      </c>
+      <c r="I7" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="58"/>
+      <c r="K7" s="59"/>
     </row>
     <row r="8" spans="1:18" ht="37.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="21"/>
@@ -6509,20 +6547,20 @@
         <v>22</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="26" t="s">
         <v>24</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I8" s="49" t="s">
         <v>1</v>
       </c>
       <c r="J8" s="46" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="K8" s="45" t="s">
         <v>0</v>
@@ -7108,12 +7146,12 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G29" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
+      <c r="G29" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
       <c r="K29" s="44"/>
     </row>
     <row r="30" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7124,45 +7162,45 @@
         <v>3</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E30" s="24" t="s">
         <v>23</v>
       </c>
       <c r="F30" s="25"/>
       <c r="G30" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I30" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="J30" s="54"/>
-      <c r="K30" s="55"/>
+        <v>26</v>
+      </c>
+      <c r="I30" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="J30" s="58"/>
+      <c r="K30" s="59"/>
     </row>
     <row r="31" spans="1:18" ht="37.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="21"/>
       <c r="C31" s="12"/>
       <c r="D31" s="17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="26" t="s">
         <v>24</v>
       </c>
       <c r="H31" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I31" s="26" t="s">
         <v>1</v>
       </c>
       <c r="J31" s="46" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="K31" s="45" t="s">
         <v>0</v>
@@ -7743,111 +7781,86 @@
       <c r="P49" s="7"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G52" s="52"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="52"/>
-      <c r="J52" s="52"/>
-      <c r="K52" s="43"/>
-    </row>
-    <row r="53" spans="1:16" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="22" t="s">
+      <c r="A51" s="54" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G53" s="56"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="56"/>
+      <c r="K53" s="43"/>
+    </row>
+    <row r="54" spans="1:16" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C54" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D53" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E53" s="24" t="s">
+      <c r="D54" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E54" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F53" s="25"/>
-      <c r="G53" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="H53" s="57"/>
-      <c r="I53" s="29" t="s">
+      <c r="F54" s="25"/>
+      <c r="G54" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="H54" s="61"/>
+      <c r="I54" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="J54" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="K54" s="25"/>
+    </row>
+    <row r="55" spans="1:16" ht="49.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="21"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="J53" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="K53" s="25"/>
-    </row>
-    <row r="54" spans="1:16" ht="49.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="21"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E54" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F54" s="6"/>
-      <c r="G54" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H54" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I54" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="J54" s="27" t="s">
+      <c r="F55" s="6"/>
+      <c r="G55" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I55" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="J55" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="8"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="3">
-        <v>0</v>
-      </c>
-      <c r="D55" s="1">
-        <v>3300</v>
-      </c>
-      <c r="E55" s="40">
-        <v>0</v>
-      </c>
-      <c r="F55" s="8"/>
-      <c r="G55" s="15">
-        <v>-128</v>
-      </c>
-      <c r="H55" s="36" t="str">
-        <f>DEC2HEX(G55, 2)</f>
-        <v>FFFFFFFF80</v>
-      </c>
-      <c r="I55" s="1">
-        <f>G55*0.55</f>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J55" s="38">
-        <f t="shared" ref="J55:J70" si="8">D55+I55</f>
-        <v>3229.6</v>
-      </c>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="8"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C56" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D56" s="1">
-        <v>3541</v>
-      </c>
-      <c r="E56" s="41">
+        <v>3300</v>
+      </c>
+      <c r="E56" s="40">
         <v>0</v>
       </c>
       <c r="F56" s="8"/>
@@ -7855,27 +7868,27 @@
         <v>-128</v>
       </c>
       <c r="H56" s="36" t="str">
-        <f t="shared" ref="H56:H70" si="9">DEC2HEX(G56, 2)</f>
+        <f>DEC2HEX(G56, 2)</f>
         <v>FFFFFFFF80</v>
       </c>
       <c r="I56" s="1">
-        <f t="shared" ref="I56:I70" si="10">G56*0.55</f>
+        <f>G56*0.55</f>
         <v>-70.400000000000006</v>
       </c>
       <c r="J56" s="38">
-        <f t="shared" si="8"/>
-        <v>3470.6</v>
+        <f t="shared" ref="J56:J71" si="8">D56+I56</f>
+        <v>3229.6</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C57" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D57" s="1">
-        <v>3618</v>
+        <v>3541</v>
       </c>
       <c r="E57" s="41">
         <v>0</v>
@@ -7885,27 +7898,27 @@
         <v>-128</v>
       </c>
       <c r="H57" s="36" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="H57:H71" si="9">DEC2HEX(G57, 2)</f>
         <v>FFFFFFFF80</v>
       </c>
       <c r="I57" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="I57:I71" si="10">G57*0.55</f>
         <v>-70.400000000000006</v>
       </c>
       <c r="J57" s="38">
         <f t="shared" si="8"/>
-        <v>3547.6</v>
+        <v>3470.6</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C58" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D58" s="1">
-        <v>3658</v>
+        <v>3618</v>
       </c>
       <c r="E58" s="41">
         <v>0</v>
@@ -7924,18 +7937,18 @@
       </c>
       <c r="J58" s="38">
         <f t="shared" si="8"/>
-        <v>3587.6</v>
+        <v>3547.6</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="3">
         <v>10</v>
       </c>
-      <c r="C59" s="3">
-        <v>15</v>
-      </c>
       <c r="D59" s="1">
-        <v>3695</v>
+        <v>3658</v>
       </c>
       <c r="E59" s="41">
         <v>0</v>
@@ -7954,18 +7967,18 @@
       </c>
       <c r="J59" s="38">
         <f t="shared" si="8"/>
-        <v>3624.6</v>
+        <v>3587.6</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C60" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D60" s="1">
-        <v>3721</v>
+        <v>3695</v>
       </c>
       <c r="E60" s="41">
         <v>0</v>
@@ -7984,18 +7997,18 @@
       </c>
       <c r="J60" s="38">
         <f t="shared" si="8"/>
-        <v>3650.6</v>
+        <v>3624.6</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C61" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D61" s="1">
-        <v>3747</v>
+        <v>3721</v>
       </c>
       <c r="E61" s="41">
         <v>0</v>
@@ -8014,18 +8027,18 @@
       </c>
       <c r="J61" s="38">
         <f t="shared" si="8"/>
-        <v>3676.6</v>
+        <v>3650.6</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C62" s="3">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D62" s="1">
-        <v>3761</v>
+        <v>3747</v>
       </c>
       <c r="E62" s="41">
         <v>0</v>
@@ -8044,18 +8057,18 @@
       </c>
       <c r="J62" s="38">
         <f t="shared" si="8"/>
-        <v>3690.6</v>
+        <v>3676.6</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C63" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D63" s="1">
-        <v>3778</v>
+        <v>3761</v>
       </c>
       <c r="E63" s="41">
         <v>0</v>
@@ -8074,18 +8087,18 @@
       </c>
       <c r="J63" s="38">
         <f t="shared" si="8"/>
-        <v>3707.6</v>
+        <v>3690.6</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C64" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D64" s="1">
-        <v>3802</v>
+        <v>3778</v>
       </c>
       <c r="E64" s="41">
         <v>0</v>
@@ -8104,18 +8117,18 @@
       </c>
       <c r="J64" s="38">
         <f t="shared" si="8"/>
-        <v>3731.6</v>
+        <v>3707.6</v>
       </c>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C65" s="3">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D65" s="1">
-        <v>3863</v>
+        <v>3802</v>
       </c>
       <c r="E65" s="41">
         <v>0</v>
@@ -8134,18 +8147,18 @@
       </c>
       <c r="J65" s="38">
         <f t="shared" si="8"/>
-        <v>3792.6</v>
+        <v>3731.6</v>
       </c>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C66" s="3">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D66" s="1">
-        <v>3899</v>
+        <v>3863</v>
       </c>
       <c r="E66" s="41">
         <v>0</v>
@@ -8164,18 +8177,18 @@
       </c>
       <c r="J66" s="38">
         <f t="shared" si="8"/>
-        <v>3828.6</v>
+        <v>3792.6</v>
       </c>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C67" s="3">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D67" s="1">
-        <v>3929</v>
+        <v>3899</v>
       </c>
       <c r="E67" s="41">
         <v>0</v>
@@ -8194,18 +8207,18 @@
       </c>
       <c r="J67" s="38">
         <f t="shared" si="8"/>
-        <v>3858.6</v>
+        <v>3828.6</v>
       </c>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C68" s="3">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D68" s="1">
-        <v>3991</v>
+        <v>3929</v>
       </c>
       <c r="E68" s="41">
         <v>0</v>
@@ -8224,18 +8237,18 @@
       </c>
       <c r="J68" s="38">
         <f t="shared" si="8"/>
-        <v>3920.6</v>
+        <v>3858.6</v>
       </c>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C69" s="3">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D69" s="1">
-        <v>4076</v>
+        <v>3991</v>
       </c>
       <c r="E69" s="41">
         <v>0</v>
@@ -8254,111 +8267,124 @@
       </c>
       <c r="J69" s="38">
         <f t="shared" si="8"/>
-        <v>4005.6</v>
-      </c>
-    </row>
-    <row r="70" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C70" s="4">
-        <v>100</v>
-      </c>
-      <c r="D70" s="2">
-        <v>4176</v>
-      </c>
-      <c r="E70" s="42">
+        <v>3920.6</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70" s="3">
+        <v>90</v>
+      </c>
+      <c r="D70" s="1">
+        <v>4076</v>
+      </c>
+      <c r="E70" s="41">
         <v>0</v>
       </c>
       <c r="F70" s="8"/>
-      <c r="G70" s="16">
+      <c r="G70" s="15">
         <v>-128</v>
       </c>
-      <c r="H70" s="37" t="str">
+      <c r="H70" s="36" t="str">
         <f t="shared" si="9"/>
         <v>FFFFFFFF80</v>
       </c>
-      <c r="I70" s="2">
+      <c r="I70" s="1">
         <f t="shared" si="10"/>
         <v>-70.400000000000006</v>
       </c>
-      <c r="J70" s="39">
+      <c r="J70" s="38">
+        <f t="shared" si="8"/>
+        <v>4005.6</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71" s="4">
+        <v>100</v>
+      </c>
+      <c r="D71" s="2">
+        <v>4176</v>
+      </c>
+      <c r="E71" s="42">
+        <v>0</v>
+      </c>
+      <c r="F71" s="8"/>
+      <c r="G71" s="16">
+        <v>-128</v>
+      </c>
+      <c r="H71" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>FFFFFFFF80</v>
+      </c>
+      <c r="I71" s="2">
+        <f t="shared" si="10"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J71" s="39">
         <f t="shared" si="8"/>
         <v>4105.6000000000004</v>
       </c>
     </row>
-    <row r="71" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G71" s="8"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="8"/>
-      <c r="L71" s="8"/>
-      <c r="M71" s="8"/>
-      <c r="N71" s="8"/>
-      <c r="O71" s="7"/>
-      <c r="P71" s="7"/>
-    </row>
-    <row r="72" spans="2:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G72" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="H72" s="57"/>
-      <c r="I72" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="J72" s="29" t="s">
+    <row r="72" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G72" s="8"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="8"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
+    </row>
+    <row r="73" spans="2:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G73" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="H73" s="61"/>
+      <c r="I73" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="J73" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="K73" s="25"/>
+    </row>
+    <row r="74" spans="2:16" ht="49.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G74" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="K72" s="25"/>
-    </row>
-    <row r="73" spans="2:16" ht="49.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G73" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H73" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="I73" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="J73" s="27" t="s">
+      <c r="H74" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I74" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="J74" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="K73" s="6"/>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="G74" s="15">
-        <v>127</v>
-      </c>
-      <c r="H74" s="36" t="str">
-        <f>DEC2HEX(G74, 2)</f>
-        <v>7F</v>
-      </c>
-      <c r="I74" s="1">
-        <f>G74*0.55</f>
-        <v>69.850000000000009</v>
-      </c>
-      <c r="J74" s="38">
-        <f>D55+I74</f>
-        <v>3369.85</v>
-      </c>
+      <c r="K74" s="6"/>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G75" s="15">
         <v>127</v>
       </c>
       <c r="H75" s="36" t="str">
-        <f t="shared" ref="H75:H89" si="11">DEC2HEX(G75, 2)</f>
+        <f>DEC2HEX(G75, 2)</f>
         <v>7F</v>
       </c>
       <c r="I75" s="1">
-        <f t="shared" ref="I75:I89" si="12">G75*0.55</f>
+        <f>G75*0.55</f>
         <v>69.850000000000009</v>
       </c>
       <c r="J75" s="38">
-        <f t="shared" ref="J75:J89" si="13">D56+I75</f>
-        <v>3610.85</v>
+        <f>D56+I75</f>
+        <v>3369.85</v>
       </c>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.25">
@@ -8366,16 +8392,16 @@
         <v>127</v>
       </c>
       <c r="H76" s="36" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="H76:H90" si="11">DEC2HEX(G76, 2)</f>
         <v>7F</v>
       </c>
       <c r="I76" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="I76:I90" si="12">G76*0.55</f>
         <v>69.850000000000009</v>
       </c>
       <c r="J76" s="38">
-        <f t="shared" si="13"/>
-        <v>3687.85</v>
+        <f t="shared" ref="J76:J90" si="13">D57+I76</f>
+        <v>3610.85</v>
       </c>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.25">
@@ -8392,7 +8418,7 @@
       </c>
       <c r="J77" s="38">
         <f t="shared" si="13"/>
-        <v>3727.85</v>
+        <v>3687.85</v>
       </c>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.25">
@@ -8409,7 +8435,7 @@
       </c>
       <c r="J78" s="38">
         <f t="shared" si="13"/>
-        <v>3764.85</v>
+        <v>3727.85</v>
       </c>
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.25">
@@ -8426,7 +8452,7 @@
       </c>
       <c r="J79" s="38">
         <f t="shared" si="13"/>
-        <v>3790.85</v>
+        <v>3764.85</v>
       </c>
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.25">
@@ -8443,10 +8469,10 @@
       </c>
       <c r="J80" s="38">
         <f t="shared" si="13"/>
-        <v>3816.85</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+        <v>3790.85</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G81" s="15">
         <v>127</v>
       </c>
@@ -8460,10 +8486,10 @@
       </c>
       <c r="J81" s="38">
         <f t="shared" si="13"/>
-        <v>3830.85</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+        <v>3816.85</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G82" s="15">
         <v>127</v>
       </c>
@@ -8477,10 +8503,10 @@
       </c>
       <c r="J82" s="38">
         <f t="shared" si="13"/>
-        <v>3847.85</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+        <v>3830.85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G83" s="15">
         <v>127</v>
       </c>
@@ -8494,10 +8520,10 @@
       </c>
       <c r="J83" s="38">
         <f t="shared" si="13"/>
-        <v>3871.85</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+        <v>3847.85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G84" s="15">
         <v>127</v>
       </c>
@@ -8511,10 +8537,10 @@
       </c>
       <c r="J84" s="38">
         <f t="shared" si="13"/>
-        <v>3932.85</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+        <v>3871.85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G85" s="15">
         <v>127</v>
       </c>
@@ -8528,10 +8554,10 @@
       </c>
       <c r="J85" s="38">
         <f t="shared" si="13"/>
-        <v>3968.85</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+        <v>3932.85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G86" s="15">
         <v>127</v>
       </c>
@@ -8545,10 +8571,10 @@
       </c>
       <c r="J86" s="38">
         <f t="shared" si="13"/>
-        <v>3998.85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+        <v>3968.85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G87" s="15">
         <v>127</v>
       </c>
@@ -8562,10 +8588,10 @@
       </c>
       <c r="J87" s="38">
         <f t="shared" si="13"/>
-        <v>4060.85</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+        <v>3998.85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G88" s="15">
         <v>127</v>
       </c>
@@ -8579,160 +8605,122 @@
       </c>
       <c r="J88" s="38">
         <f t="shared" si="13"/>
-        <v>4145.8500000000004</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G89" s="16">
+        <v>4060.85</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G89" s="15">
         <v>127</v>
       </c>
-      <c r="H89" s="37" t="str">
+      <c r="H89" s="36" t="str">
         <f t="shared" si="11"/>
         <v>7F</v>
       </c>
-      <c r="I89" s="2">
+      <c r="I89" s="1">
         <f t="shared" si="12"/>
         <v>69.850000000000009</v>
       </c>
-      <c r="J89" s="39">
+      <c r="J89" s="38">
+        <f t="shared" si="13"/>
+        <v>4145.8500000000004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G90" s="16">
+        <v>127</v>
+      </c>
+      <c r="H90" s="37" t="str">
+        <f t="shared" si="11"/>
+        <v>7F</v>
+      </c>
+      <c r="I90" s="2">
+        <f t="shared" si="12"/>
+        <v>69.850000000000009</v>
+      </c>
+      <c r="J90" s="39">
         <f t="shared" si="13"/>
         <v>4245.8500000000004</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G93" s="52"/>
-      <c r="H93" s="52"/>
-      <c r="I93" s="52"/>
-      <c r="J93" s="52"/>
-      <c r="K93" s="43"/>
-    </row>
-    <row r="94" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="22" t="s">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G95" s="56"/>
+      <c r="H95" s="56"/>
+      <c r="I95" s="56"/>
+      <c r="J95" s="56"/>
+      <c r="K95" s="43"/>
+    </row>
+    <row r="96" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C94" s="11" t="s">
+      <c r="C96" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D94" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E94" s="24" t="s">
+      <c r="D96" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E96" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F94" s="25"/>
-      <c r="G94" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="H94" s="57"/>
-      <c r="I94" s="29" t="s">
+      <c r="F96" s="25"/>
+      <c r="G96" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="H96" s="61"/>
+      <c r="I96" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="J96" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="K96" s="25"/>
+    </row>
+    <row r="97" spans="2:14" ht="49.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="21"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E97" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="J94" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="K94" s="25"/>
-    </row>
-    <row r="95" spans="1:14" ht="49.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="21"/>
-      <c r="C95" s="12"/>
-      <c r="D95" s="17" t="s">
+      <c r="F97" s="6"/>
+      <c r="G97" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H97" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E95" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F95" s="6"/>
-      <c r="G95" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H95" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I95" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="J95" s="27" t="s">
+      <c r="I97" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="J97" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="K95" s="6"/>
-      <c r="L95" s="6"/>
-      <c r="M95" s="6"/>
-      <c r="N95" s="8"/>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B96" s="1" t="s">
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="8"/>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C98" s="3">
         <v>0</v>
       </c>
-      <c r="D96" s="18">
+      <c r="D98" s="18">
         <v>3300</v>
-      </c>
-      <c r="E96" s="36">
-        <v>0</v>
-      </c>
-      <c r="F96" s="8"/>
-      <c r="G96" s="15">
-        <v>-128</v>
-      </c>
-      <c r="H96" s="36" t="str">
-        <f>DEC2HEX(G96, 2)</f>
-        <v>FFFFFFFF80</v>
-      </c>
-      <c r="I96" s="1">
-        <f>G96*0.55</f>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J96" s="38">
-        <f t="shared" ref="J96:J111" si="14">D96+I96</f>
-        <v>3229.6</v>
-      </c>
-    </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B97" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C97" s="3">
-        <v>3</v>
-      </c>
-      <c r="D97" s="19">
-        <v>3571</v>
-      </c>
-      <c r="E97" s="36">
-        <v>0</v>
-      </c>
-      <c r="F97" s="8"/>
-      <c r="G97" s="15">
-        <v>-128</v>
-      </c>
-      <c r="H97" s="36" t="str">
-        <f t="shared" ref="H97:H111" si="15">DEC2HEX(G97, 2)</f>
-        <v>FFFFFFFF80</v>
-      </c>
-      <c r="I97" s="1">
-        <f t="shared" ref="I97:I111" si="16">G97*0.55</f>
-        <v>-70.400000000000006</v>
-      </c>
-      <c r="J97" s="38">
-        <f t="shared" si="14"/>
-        <v>3500.6</v>
-      </c>
-    </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B98" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C98" s="3">
-        <v>6</v>
-      </c>
-      <c r="D98" s="19">
-        <v>3651</v>
       </c>
       <c r="E98" s="36">
         <v>0</v>
@@ -8742,27 +8730,27 @@
         <v>-128</v>
       </c>
       <c r="H98" s="36" t="str">
-        <f t="shared" si="15"/>
+        <f>DEC2HEX(G98, 2)</f>
         <v>FFFFFFFF80</v>
       </c>
       <c r="I98" s="1">
-        <f t="shared" si="16"/>
+        <f>G98*0.55</f>
         <v>-70.400000000000006</v>
       </c>
       <c r="J98" s="38">
-        <f t="shared" si="14"/>
-        <v>3580.6</v>
-      </c>
-    </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J98:J113" si="14">D98+I98</f>
+        <v>3229.6</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C99" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D99" s="19">
-        <v>3675</v>
+        <v>3571</v>
       </c>
       <c r="E99" s="36">
         <v>0</v>
@@ -8772,27 +8760,27 @@
         <v>-128</v>
       </c>
       <c r="H99" s="36" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="H99:H113" si="15">DEC2HEX(G99, 2)</f>
         <v>FFFFFFFF80</v>
       </c>
       <c r="I99" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="I99:I113" si="16">G99*0.55</f>
         <v>-70.400000000000006</v>
       </c>
       <c r="J99" s="38">
         <f t="shared" si="14"/>
-        <v>3604.6</v>
-      </c>
-    </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
+        <v>3500.6</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C100" s="3">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D100" s="19">
-        <v>3710</v>
+        <v>3651</v>
       </c>
       <c r="E100" s="36">
         <v>0</v>
@@ -8811,18 +8799,18 @@
       </c>
       <c r="J100" s="38">
         <f t="shared" si="14"/>
-        <v>3639.6</v>
-      </c>
-    </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.25">
+        <v>3580.6</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C101" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D101" s="19">
-        <v>3743</v>
+        <v>3675</v>
       </c>
       <c r="E101" s="36">
         <v>0</v>
@@ -8841,18 +8829,18 @@
       </c>
       <c r="J101" s="38">
         <f t="shared" si="14"/>
-        <v>3672.6</v>
-      </c>
-    </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.25">
+        <v>3604.6</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C102" s="3">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D102" s="19">
-        <v>3761</v>
+        <v>3710</v>
       </c>
       <c r="E102" s="36">
         <v>0</v>
@@ -8871,18 +8859,18 @@
       </c>
       <c r="J102" s="38">
         <f t="shared" si="14"/>
-        <v>3690.6</v>
-      </c>
-    </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.25">
+        <v>3639.6</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C103" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D103" s="19">
-        <v>3770</v>
+        <v>3743</v>
       </c>
       <c r="E103" s="36">
         <v>0</v>
@@ -8901,18 +8889,18 @@
       </c>
       <c r="J103" s="38">
         <f t="shared" si="14"/>
-        <v>3699.6</v>
-      </c>
-    </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
+        <v>3672.6</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C104" s="3">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D104" s="19">
-        <v>3790</v>
+        <v>3761</v>
       </c>
       <c r="E104" s="36">
         <v>0</v>
@@ -8931,18 +8919,18 @@
       </c>
       <c r="J104" s="38">
         <f t="shared" si="14"/>
-        <v>3719.6</v>
-      </c>
-    </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
+        <v>3690.6</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C105" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D105" s="19">
-        <v>3825</v>
+        <v>3770</v>
       </c>
       <c r="E105" s="36">
         <v>0</v>
@@ -8961,18 +8949,18 @@
       </c>
       <c r="J105" s="38">
         <f t="shared" si="14"/>
-        <v>3754.6</v>
-      </c>
-    </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
+        <v>3699.6</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C106" s="3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D106" s="19">
-        <v>3914</v>
+        <v>3790</v>
       </c>
       <c r="E106" s="36">
         <v>0</v>
@@ -8991,18 +8979,18 @@
       </c>
       <c r="J106" s="38">
         <f t="shared" si="14"/>
-        <v>3843.6</v>
-      </c>
-    </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
+        <v>3719.6</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C107" s="3">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D107" s="19">
-        <v>3953</v>
+        <v>3825</v>
       </c>
       <c r="E107" s="36">
         <v>0</v>
@@ -9021,18 +9009,18 @@
       </c>
       <c r="J107" s="38">
         <f t="shared" si="14"/>
-        <v>3882.6</v>
-      </c>
-    </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
+        <v>3754.6</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C108" s="3">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D108" s="19">
-        <v>3990</v>
+        <v>3914</v>
       </c>
       <c r="E108" s="36">
         <v>0</v>
@@ -9051,18 +9039,18 @@
       </c>
       <c r="J108" s="38">
         <f t="shared" si="14"/>
-        <v>3919.6</v>
-      </c>
-    </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
+        <v>3843.6</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C109" s="3">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D109" s="19">
-        <v>4088</v>
+        <v>3953</v>
       </c>
       <c r="E109" s="36">
         <v>0</v>
@@ -9081,18 +9069,18 @@
       </c>
       <c r="J109" s="38">
         <f t="shared" si="14"/>
-        <v>4017.6</v>
-      </c>
-    </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
+        <v>3882.6</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C110" s="3">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D110" s="19">
-        <v>4197</v>
+        <v>3990</v>
       </c>
       <c r="E110" s="36">
         <v>0</v>
@@ -9111,148 +9099,174 @@
       </c>
       <c r="J110" s="38">
         <f t="shared" si="14"/>
-        <v>4126.6000000000004</v>
-      </c>
-    </row>
-    <row r="111" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C111" s="4">
-        <v>100</v>
-      </c>
-      <c r="D111" s="20">
-        <v>4313</v>
-      </c>
-      <c r="E111" s="37">
+        <v>3919.6</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B111" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C111" s="3">
+        <v>80</v>
+      </c>
+      <c r="D111" s="19">
+        <v>4088</v>
+      </c>
+      <c r="E111" s="36">
         <v>0</v>
       </c>
       <c r="F111" s="8"/>
-      <c r="G111" s="16">
+      <c r="G111" s="15">
         <v>-128</v>
       </c>
-      <c r="H111" s="37" t="str">
+      <c r="H111" s="36" t="str">
         <f t="shared" si="15"/>
         <v>FFFFFFFF80</v>
       </c>
-      <c r="I111" s="2">
+      <c r="I111" s="1">
         <f t="shared" si="16"/>
         <v>-70.400000000000006</v>
       </c>
-      <c r="J111" s="39">
+      <c r="J111" s="38">
+        <f t="shared" si="14"/>
+        <v>4017.6</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B112" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C112" s="3">
+        <v>90</v>
+      </c>
+      <c r="D112" s="19">
+        <v>4197</v>
+      </c>
+      <c r="E112" s="36">
+        <v>0</v>
+      </c>
+      <c r="F112" s="8"/>
+      <c r="G112" s="15">
+        <v>-128</v>
+      </c>
+      <c r="H112" s="36" t="str">
+        <f t="shared" si="15"/>
+        <v>FFFFFFFF80</v>
+      </c>
+      <c r="I112" s="1">
+        <f t="shared" si="16"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J112" s="38">
+        <f t="shared" si="14"/>
+        <v>4126.6000000000004</v>
+      </c>
+    </row>
+    <row r="113" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C113" s="4">
+        <v>100</v>
+      </c>
+      <c r="D113" s="20">
+        <v>4313</v>
+      </c>
+      <c r="E113" s="37">
+        <v>0</v>
+      </c>
+      <c r="F113" s="8"/>
+      <c r="G113" s="16">
+        <v>-128</v>
+      </c>
+      <c r="H113" s="37" t="str">
+        <f t="shared" si="15"/>
+        <v>FFFFFFFF80</v>
+      </c>
+      <c r="I113" s="2">
+        <f t="shared" si="16"/>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="J113" s="39">
         <f t="shared" si="14"/>
         <v>4242.6000000000004</v>
       </c>
     </row>
-    <row r="112" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G112" s="8"/>
-      <c r="H112" s="7"/>
-      <c r="I112" s="8"/>
-      <c r="J112" s="8"/>
-      <c r="K112" s="8"/>
-      <c r="L112" s="8"/>
-      <c r="M112" s="8"/>
-      <c r="N112" s="8"/>
-      <c r="O112" s="7"/>
-      <c r="P112" s="7"/>
-    </row>
-    <row r="113" spans="7:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G113" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="H113" s="57"/>
-      <c r="I113" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="J113" s="29" t="s">
+    <row r="114" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G114" s="8"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
+      <c r="K114" s="8"/>
+      <c r="L114" s="8"/>
+      <c r="M114" s="8"/>
+      <c r="N114" s="8"/>
+      <c r="O114" s="7"/>
+      <c r="P114" s="7"/>
+    </row>
+    <row r="115" spans="2:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G115" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="H115" s="61"/>
+      <c r="I115" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="J115" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="K115" s="25"/>
+    </row>
+    <row r="116" spans="2:16" ht="49.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G116" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="K113" s="25"/>
-    </row>
-    <row r="114" spans="7:11" ht="49.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G114" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H114" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="I114" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="J114" s="27" t="s">
+      <c r="H116" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I116" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="J116" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="K114" s="6"/>
-    </row>
-    <row r="115" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G115" s="15">
-        <v>127</v>
-      </c>
-      <c r="H115" s="36" t="str">
-        <f>DEC2HEX(G115, 2)</f>
-        <v>7F</v>
-      </c>
-      <c r="I115" s="1">
-        <f>G115*0.55</f>
-        <v>69.850000000000009</v>
-      </c>
-      <c r="J115" s="38">
-        <f>D96+I115</f>
-        <v>3369.85</v>
-      </c>
-    </row>
-    <row r="116" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G116" s="15">
-        <v>127</v>
-      </c>
-      <c r="H116" s="36" t="str">
-        <f t="shared" ref="H116:H130" si="17">DEC2HEX(G116, 2)</f>
-        <v>7F</v>
-      </c>
-      <c r="I116" s="1">
-        <f t="shared" ref="I116:I130" si="18">G116*0.55</f>
-        <v>69.850000000000009</v>
-      </c>
-      <c r="J116" s="38">
-        <f t="shared" ref="J116:J130" si="19">D97+I116</f>
-        <v>3640.85</v>
-      </c>
-    </row>
-    <row r="117" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="K116" s="6"/>
+    </row>
+    <row r="117" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G117" s="15">
         <v>127</v>
       </c>
       <c r="H117" s="36" t="str">
-        <f t="shared" si="17"/>
+        <f>DEC2HEX(G117, 2)</f>
         <v>7F</v>
       </c>
       <c r="I117" s="1">
-        <f t="shared" si="18"/>
+        <f>G117*0.55</f>
         <v>69.850000000000009</v>
       </c>
       <c r="J117" s="38">
-        <f t="shared" si="19"/>
-        <v>3720.85</v>
-      </c>
-    </row>
-    <row r="118" spans="7:11" x14ac:dyDescent="0.25">
+        <f>D98+I117</f>
+        <v>3369.85</v>
+      </c>
+    </row>
+    <row r="118" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G118" s="15">
         <v>127</v>
       </c>
       <c r="H118" s="36" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="H118:H132" si="17">DEC2HEX(G118, 2)</f>
         <v>7F</v>
       </c>
       <c r="I118" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="I118:I132" si="18">G118*0.55</f>
         <v>69.850000000000009</v>
       </c>
       <c r="J118" s="38">
-        <f t="shared" si="19"/>
-        <v>3744.85</v>
-      </c>
-    </row>
-    <row r="119" spans="7:11" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J118:J132" si="19">D99+I118</f>
+        <v>3640.85</v>
+      </c>
+    </row>
+    <row r="119" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G119" s="15">
         <v>127</v>
       </c>
@@ -9266,10 +9280,10 @@
       </c>
       <c r="J119" s="38">
         <f t="shared" si="19"/>
-        <v>3779.85</v>
-      </c>
-    </row>
-    <row r="120" spans="7:11" x14ac:dyDescent="0.25">
+        <v>3720.85</v>
+      </c>
+    </row>
+    <row r="120" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G120" s="15">
         <v>127</v>
       </c>
@@ -9283,10 +9297,10 @@
       </c>
       <c r="J120" s="38">
         <f t="shared" si="19"/>
-        <v>3812.85</v>
-      </c>
-    </row>
-    <row r="121" spans="7:11" x14ac:dyDescent="0.25">
+        <v>3744.85</v>
+      </c>
+    </row>
+    <row r="121" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G121" s="15">
         <v>127</v>
       </c>
@@ -9300,10 +9314,10 @@
       </c>
       <c r="J121" s="38">
         <f t="shared" si="19"/>
-        <v>3830.85</v>
-      </c>
-    </row>
-    <row r="122" spans="7:11" x14ac:dyDescent="0.25">
+        <v>3779.85</v>
+      </c>
+    </row>
+    <row r="122" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G122" s="15">
         <v>127</v>
       </c>
@@ -9317,10 +9331,10 @@
       </c>
       <c r="J122" s="38">
         <f t="shared" si="19"/>
-        <v>3839.85</v>
-      </c>
-    </row>
-    <row r="123" spans="7:11" x14ac:dyDescent="0.25">
+        <v>3812.85</v>
+      </c>
+    </row>
+    <row r="123" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G123" s="15">
         <v>127</v>
       </c>
@@ -9334,10 +9348,10 @@
       </c>
       <c r="J123" s="38">
         <f t="shared" si="19"/>
-        <v>3859.85</v>
-      </c>
-    </row>
-    <row r="124" spans="7:11" x14ac:dyDescent="0.25">
+        <v>3830.85</v>
+      </c>
+    </row>
+    <row r="124" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G124" s="15">
         <v>127</v>
       </c>
@@ -9351,10 +9365,10 @@
       </c>
       <c r="J124" s="38">
         <f t="shared" si="19"/>
-        <v>3894.85</v>
-      </c>
-    </row>
-    <row r="125" spans="7:11" x14ac:dyDescent="0.25">
+        <v>3839.85</v>
+      </c>
+    </row>
+    <row r="125" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G125" s="15">
         <v>127</v>
       </c>
@@ -9368,10 +9382,10 @@
       </c>
       <c r="J125" s="38">
         <f t="shared" si="19"/>
-        <v>3983.85</v>
-      </c>
-    </row>
-    <row r="126" spans="7:11" x14ac:dyDescent="0.25">
+        <v>3859.85</v>
+      </c>
+    </row>
+    <row r="126" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G126" s="15">
         <v>127</v>
       </c>
@@ -9385,10 +9399,10 @@
       </c>
       <c r="J126" s="38">
         <f t="shared" si="19"/>
-        <v>4022.85</v>
-      </c>
-    </row>
-    <row r="127" spans="7:11" x14ac:dyDescent="0.25">
+        <v>3894.85</v>
+      </c>
+    </row>
+    <row r="127" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G127" s="15">
         <v>127</v>
       </c>
@@ -9402,10 +9416,10 @@
       </c>
       <c r="J127" s="38">
         <f t="shared" si="19"/>
-        <v>4059.85</v>
-      </c>
-    </row>
-    <row r="128" spans="7:11" x14ac:dyDescent="0.25">
+        <v>3983.85</v>
+      </c>
+    </row>
+    <row r="128" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G128" s="15">
         <v>127</v>
       </c>
@@ -9419,7 +9433,7 @@
       </c>
       <c r="J128" s="38">
         <f t="shared" si="19"/>
-        <v>4157.8500000000004</v>
+        <v>4022.85</v>
       </c>
     </row>
     <row r="129" spans="7:10" x14ac:dyDescent="0.25">
@@ -9436,42 +9450,79 @@
       </c>
       <c r="J129" s="38">
         <f t="shared" si="19"/>
-        <v>4266.8500000000004</v>
-      </c>
-    </row>
-    <row r="130" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G130" s="16">
+        <v>4059.85</v>
+      </c>
+    </row>
+    <row r="130" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G130" s="15">
         <v>127</v>
       </c>
-      <c r="H130" s="37" t="str">
+      <c r="H130" s="36" t="str">
         <f t="shared" si="17"/>
         <v>7F</v>
       </c>
-      <c r="I130" s="2">
+      <c r="I130" s="1">
         <f t="shared" si="18"/>
         <v>69.850000000000009</v>
       </c>
-      <c r="J130" s="39">
+      <c r="J130" s="38">
+        <f t="shared" si="19"/>
+        <v>4157.8500000000004</v>
+      </c>
+    </row>
+    <row r="131" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G131" s="15">
+        <v>127</v>
+      </c>
+      <c r="H131" s="36" t="str">
+        <f t="shared" si="17"/>
+        <v>7F</v>
+      </c>
+      <c r="I131" s="1">
+        <f t="shared" si="18"/>
+        <v>69.850000000000009</v>
+      </c>
+      <c r="J131" s="38">
+        <f t="shared" si="19"/>
+        <v>4266.8500000000004</v>
+      </c>
+    </row>
+    <row r="132" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G132" s="16">
+        <v>127</v>
+      </c>
+      <c r="H132" s="37" t="str">
+        <f t="shared" si="17"/>
+        <v>7F</v>
+      </c>
+      <c r="I132" s="2">
+        <f t="shared" si="18"/>
+        <v>69.850000000000009</v>
+      </c>
+      <c r="J132" s="39">
         <f t="shared" si="19"/>
         <v>4382.8500000000004</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="G93:J93"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="G95:J95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="G53:J53"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="I30:K30"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G73:H73"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="66" orientation="landscape" horizontalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="49" max="16383" man="1"/>
-    <brk id="90" max="16383" man="1"/>
+    <brk id="91" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -9487,48 +9538,48 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
         <v>42</v>
-      </c>
-      <c r="B1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F2">
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
